--- a/backend/controllers/csv/,ehsxmngmodifiedData.xlsx
+++ b/backend/controllers/csv/,ehsxmngmodifiedData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AR72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,16 +538,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B2" t="str">
-        <v>a611fd99a709bcbbcd26571ca873a9b8c715cbc6</v>
+        <v>0ca27628e4a73ffbc671b1e270ad399fbf8293c6</v>
       </c>
       <c r="C2" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:a611fd99a709bcbbcd26571ca873a9b8c715cbc6</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:0ca27628e4a73ffbc671b1e270ad399fbf8293c6</v>
       </c>
       <c r="D2" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E2" t="str">
         <v>ehsxmng</v>
@@ -565,73 +565,73 @@
         <v>unknown</v>
       </c>
       <c r="J2" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K2" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L2" t="str">
-        <v>[PC] Any&lt;T&gt; to std::optional&lt;T&gt; for PucchConfig</v>
+        <v>[SP:399] Added boosting algorithms for test models</v>
       </c>
       <c r="M2" t="str">
-        <v>2023-01-10</v>
+        <v>2019-03-27</v>
       </c>
       <c r="N2" t="str">
-        <v>2023-01-10</v>
+        <v>2019-03-27</v>
       </c>
       <c r="O2" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>484</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>484</v>
+      </c>
+      <c r="X2">
+        <v>484</v>
+      </c>
+      <c r="Y2">
         <v>2</v>
       </c>
-      <c r="S2">
-        <v>90</v>
-      </c>
-      <c r="T2">
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <v>23</v>
-      </c>
-      <c r="V2">
-        <v>24</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>47</v>
-      </c>
-      <c r="Y2">
-        <v>8</v>
-      </c>
       <c r="Z2">
-        <v>69</v>
+        <v>484</v>
       </c>
       <c r="AA2">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>484</v>
       </c>
       <c r="AC2">
-        <v>137</v>
+        <v>484</v>
       </c>
       <c r="AD2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AE2">
-        <v>0.36</v>
+        <v>2.36</v>
       </c>
       <c r="AF2">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -642,16 +642,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B3" t="str">
-        <v>e01c4bfff82d2b254a864f32845e65a8b1529cf0</v>
+        <v>690caca66293348720a4fe2306ed42a08acca24c</v>
       </c>
       <c r="C3" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:e01c4bfff82d2b254a864f32845e65a8b1529cf0</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:690caca66293348720a4fe2306ed42a08acca24c</v>
       </c>
       <c r="D3" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E3" t="str">
         <v>ehsxmng</v>
@@ -669,96 +669,96 @@
         <v>unknown</v>
       </c>
       <c r="J3" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K3" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L3" t="str">
-        <v>[PC] Any&lt;T&gt; to sdt::optional&lt;T&gt; in rrc</v>
+        <v>[SP:399] Mapping of PLT to YAML Parameters</v>
       </c>
       <c r="M3" t="str">
-        <v>2023-01-23</v>
+        <v>2019-04-02</v>
       </c>
       <c r="N3" t="str">
-        <v>2023-01-24</v>
+        <v>2019-04-02</v>
       </c>
       <c r="O3" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P3">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>34</v>
+        <v>620</v>
       </c>
       <c r="V3">
-        <v>33</v>
+        <v>405</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="X3">
-        <v>67</v>
+        <v>1025</v>
       </c>
       <c r="Y3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>131</v>
+        <v>620</v>
       </c>
       <c r="AA3">
-        <v>136</v>
+        <v>405</v>
       </c>
       <c r="AB3">
-        <v>-5</v>
+        <v>215</v>
       </c>
       <c r="AC3">
-        <v>267</v>
+        <v>1025</v>
       </c>
       <c r="AD3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="AE3">
-        <v>0.88</v>
+        <v>7.36</v>
       </c>
       <c r="AF3">
-        <v>7.41</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AH3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI3">
-        <v>0.07</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B4" t="str">
-        <v>cf74d456e04e50934dad680b361e9fba0e2d9d93</v>
+        <v>f45470b1077b6f8270eaf383441851ffa2529c77</v>
       </c>
       <c r="C4" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:cf74d456e04e50934dad680b361e9fba0e2d9d93</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:f45470b1077b6f8270eaf383441851ffa2529c77</v>
       </c>
       <c r="D4" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E4" t="str">
         <v>ehsxmng</v>
@@ -776,96 +776,96 @@
         <v>unknown</v>
       </c>
       <c r="J4" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K4" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L4" t="str">
-        <v>[PC] Replace Any with std::optional</v>
+        <v>[SP:399] Integration and fixes for mapping</v>
       </c>
       <c r="M4" t="str">
-        <v>2023-03-16</v>
+        <v>2019-04-10</v>
       </c>
       <c r="N4" t="str">
-        <v>2023-03-16</v>
+        <v>2019-04-10</v>
       </c>
       <c r="O4" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P4">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="V4">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="W4">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="X4">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="Y4">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="AA4">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="AB4">
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="AC4">
-        <v>422</v>
+        <v>161</v>
       </c>
       <c r="AD4">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="AE4">
-        <v>3.17</v>
+        <v>8.14</v>
       </c>
       <c r="AF4">
-        <v>10.63</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AH4">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AI4">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>[SP:10181-2]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B5" t="str">
-        <v>1e7ea84e21b4910b1d1bbe3c173f19af475fe0b6</v>
+        <v>af1ead789e1cf2b34bc5b0c3ba030c8fb3b92ae1</v>
       </c>
       <c r="C5" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:1e7ea84e21b4910b1d1bbe3c173f19af475fe0b6</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:af1ead789e1cf2b34bc5b0c3ba030c8fb3b92ae1</v>
       </c>
       <c r="D5" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E5" t="str">
         <v>ehsxmng</v>
@@ -883,96 +883,96 @@
         <v>unknown</v>
       </c>
       <c r="J5" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K5" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L5" t="str">
-        <v>[SP:10181-2] Removal of rpcControl SC</v>
+        <v>[SP:399] Fixes to mapping and added testcases</v>
       </c>
       <c r="M5" t="str">
-        <v>2023-04-20</v>
+        <v>2019-04-15</v>
       </c>
       <c r="N5" t="str">
-        <v>2023-04-20</v>
+        <v>2019-04-15</v>
       </c>
       <c r="O5" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="V5">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="W5">
-        <v>-40</v>
+        <v>378</v>
       </c>
       <c r="X5">
-        <v>88</v>
+        <v>424</v>
       </c>
       <c r="Y5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z5">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="AA5">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="AB5">
-        <v>-54</v>
+        <v>378</v>
       </c>
       <c r="AC5">
-        <v>102</v>
+        <v>424</v>
       </c>
       <c r="AD5">
         <v>8</v>
       </c>
       <c r="AE5">
-        <v>3.85</v>
+        <v>10.21</v>
       </c>
       <c r="AF5">
-        <v>10.99</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AH5">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AI5">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>[SP:10181-2]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B6" t="str">
-        <v>0f919abe5307e91e1c4bba0cd7c5bb41a8c4c788</v>
+        <v>537b91c7544eb67cd15ad080bc2762dc983f8976</v>
       </c>
       <c r="C6" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:0f919abe5307e91e1c4bba0cd7c5bb41a8c4c788</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:537b91c7544eb67cd15ad080bc2762dc983f8976</v>
       </c>
       <c r="D6" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E6" t="str">
         <v>ehsxmng</v>
@@ -990,96 +990,96 @@
         <v>unknown</v>
       </c>
       <c r="J6" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K6" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L6" t="str">
-        <v>[SP:10181-2] Remove sc for T+T+F+F CA combo</v>
+        <v>[SP:399] Updated boosting algorithms to standard</v>
       </c>
       <c r="M6" t="str">
-        <v>2023-05-02</v>
+        <v>2019-04-23</v>
       </c>
       <c r="N6" t="str">
-        <v>2023-05-02</v>
+        <v>2019-04-23</v>
       </c>
       <c r="O6" t="str">
-        <v>source</v>
+        <v>test</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>-101</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-72</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="AA6">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="AB6">
-        <v>-101</v>
+        <v>-72</v>
       </c>
       <c r="AC6">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="AD6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6">
-        <v>3.85</v>
+        <v>11.73</v>
       </c>
       <c r="AF6">
-        <v>13.62</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="AH6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI6">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>[SP:11022-SP6]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B7" t="str">
-        <v>d87e06a41090d2ddac3fd3e0b438f4d00c034ef2</v>
+        <v>605752e2f65ac89601ccaac469cffc87bbbc5847</v>
       </c>
       <c r="C7" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:d87e06a41090d2ddac3fd3e0b438f4d00c034ef2</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:605752e2f65ac89601ccaac469cffc87bbbc5847</v>
       </c>
       <c r="D7" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E7" t="str">
         <v>ehsxmng</v>
@@ -1097,79 +1097,79 @@
         <v>unknown</v>
       </c>
       <c r="J7" t="str">
-        <v>5g/src/ucl</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K7" t="str">
-        <v>unknown</v>
+        <v>MSRBS</v>
       </c>
       <c r="L7" t="str">
-        <v>[SP:11022-SP6] Add DMRS Type support</v>
+        <v>[SP:399] Integration of boosting algorithms</v>
       </c>
       <c r="M7" t="str">
-        <v>2023-07-05</v>
+        <v>2019-06-15</v>
       </c>
       <c r="N7" t="str">
-        <v>2023-07-05</v>
+        <v>2019-06-15</v>
       </c>
       <c r="O7" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P7">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="V7">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="W7">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="X7">
-        <v>196</v>
+        <v>498</v>
       </c>
       <c r="Y7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Z7">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="AA7">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="AB7">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="AC7">
-        <v>346</v>
+        <v>498</v>
       </c>
       <c r="AD7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AE7">
-        <v>5.37</v>
+        <v>14.16</v>
       </c>
       <c r="AF7">
-        <v>17.45</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AH7">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AI7">
         <v>0.02</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B8" t="str">
-        <v>9af025d3420cafc02b2da822cece7b72f5f17f11</v>
+        <v>35ada957f005eca03b68a548c4e1dab9aceef1ba</v>
       </c>
       <c r="C8" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:9af025d3420cafc02b2da822cece7b72f5f17f11</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:35ada957f005eca03b68a548c4e1dab9aceef1ba</v>
       </c>
       <c r="D8" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E8" t="str">
         <v>ehsxmng</v>
@@ -1204,96 +1204,96 @@
         <v>unknown</v>
       </c>
       <c r="J8" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K8" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L8" t="str">
-        <v>[PC] Replace Any with optional</v>
+        <v>[SP:399] Boosting fix for TM3.2 and TM3.3</v>
       </c>
       <c r="M8" t="str">
-        <v>2023-07-26</v>
+        <v>2019-07-29</v>
       </c>
       <c r="N8" t="str">
-        <v>2023-07-26</v>
+        <v>2019-07-29</v>
       </c>
       <c r="O8" t="str">
         <v>source test</v>
       </c>
       <c r="P8">
-        <v>259</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>528</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>315</v>
+        <v>479</v>
       </c>
       <c r="V8">
-        <v>286</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="X8">
-        <v>601</v>
+        <v>481</v>
       </c>
       <c r="Y8">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="Z8">
-        <v>574</v>
+        <v>480</v>
       </c>
       <c r="AA8">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="AB8">
-        <v>19</v>
+        <v>477</v>
       </c>
       <c r="AC8">
-        <v>1129</v>
+        <v>483</v>
       </c>
       <c r="AD8">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="AE8">
-        <v>10.02</v>
+        <v>16.5</v>
       </c>
       <c r="AF8">
-        <v>30.95</v>
+        <v>0.04</v>
       </c>
       <c r="AG8">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="AH8">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AI8">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B9" t="str">
-        <v>2407ae9e66644c114ea2cc19bb0af37b44cb2e59</v>
+        <v>1a3e2d32a3d6f8342a28abcc798d95378e4a5f61</v>
       </c>
       <c r="C9" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:2407ae9e66644c114ea2cc19bb0af37b44cb2e59</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:1a3e2d32a3d6f8342a28abcc798d95378e4a5f61</v>
       </c>
       <c r="D9" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E9" t="str">
         <v>ehsxmng</v>
@@ -1311,96 +1311,96 @@
         <v>unknown</v>
       </c>
       <c r="J9" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K9" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L9" t="str">
-        <v>[PC] Replace Any with optional</v>
+        <v>[SP:399] Updates to TM1.2, TM3.2 and TM3.3 default yaml</v>
       </c>
       <c r="M9" t="str">
-        <v>2023-08-02</v>
+        <v>2019-08-01</v>
       </c>
       <c r="N9" t="str">
-        <v>2023-08-02</v>
+        <v>2019-08-01</v>
       </c>
       <c r="O9" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P9">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="V9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="W9">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="X9">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="Y9">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="Z9">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="AA9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="AB9">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="AC9">
-        <v>562</v>
+        <v>165</v>
       </c>
       <c r="AD9">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="AE9">
-        <v>12.73</v>
+        <v>17.31</v>
       </c>
       <c r="AF9">
-        <v>36.37</v>
+        <v>0.04</v>
       </c>
       <c r="AG9">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="AH9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI9">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B10" t="str">
-        <v>71debfe1cb672a2d39ce7cc71fc0728d2838937e</v>
+        <v>5b2734ab97038d32bde8a822ce51b61822e36a04</v>
       </c>
       <c r="C10" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:71debfe1cb672a2d39ce7cc71fc0728d2838937e</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:5b2734ab97038d32bde8a822ce51b61822e36a04</v>
       </c>
       <c r="D10" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E10" t="str">
         <v>ehsxmng</v>
@@ -1418,96 +1418,96 @@
         <v>unknown</v>
       </c>
       <c r="J10" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K10" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L10" t="str">
-        <v>[PC] Replace Any with optional</v>
+        <v>[SP:399] 30 and 90Mhz for boosting TMs</v>
       </c>
       <c r="M10" t="str">
-        <v>2023-08-14</v>
+        <v>2019-08-02</v>
       </c>
       <c r="N10" t="str">
-        <v>2023-08-14</v>
+        <v>2019-08-02</v>
       </c>
       <c r="O10" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P10">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>2079</v>
+        <v>55</v>
       </c>
       <c r="V10">
-        <v>2029</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="X10">
-        <v>4108</v>
+        <v>56</v>
       </c>
       <c r="Y10">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Z10">
-        <v>2241</v>
+        <v>55</v>
       </c>
       <c r="AA10">
-        <v>2204</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AC10">
-        <v>4445</v>
+        <v>56</v>
       </c>
       <c r="AD10">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>44.53</v>
+        <v>17.58</v>
       </c>
       <c r="AF10">
-        <v>44.98</v>
+        <v>0.04</v>
       </c>
       <c r="AG10">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="AH10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B11" t="str">
-        <v>4e01b5ad0e30d414c4008c9e552ec96238cc9619</v>
+        <v>fb35cca849704215ec0ab699df8eac0972b9b58f</v>
       </c>
       <c r="C11" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:4e01b5ad0e30d414c4008c9e552ec96238cc9619</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:fb35cca849704215ec0ab699df8eac0972b9b58f</v>
       </c>
       <c r="D11" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E11" t="str">
         <v>ehsxmng</v>
@@ -1525,96 +1525,96 @@
         <v>unknown</v>
       </c>
       <c r="J11" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K11" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L11" t="str">
-        <v>[PC] Replace Any with optional</v>
+        <v>[SP:399] Boosting Fix and new 30/90Mhz testcases</v>
       </c>
       <c r="M11" t="str">
-        <v>2023-08-16</v>
+        <v>2019-08-12</v>
       </c>
       <c r="N11" t="str">
-        <v>2023-08-16</v>
+        <v>2019-08-16</v>
       </c>
       <c r="O11" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P11">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>1687</v>
+        <v>97</v>
       </c>
       <c r="V11">
-        <v>1675</v>
+        <v>7</v>
       </c>
       <c r="W11">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="X11">
-        <v>3362</v>
+        <v>104</v>
       </c>
       <c r="Y11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Z11">
-        <v>1795</v>
+        <v>97</v>
       </c>
       <c r="AA11">
-        <v>1786</v>
+        <v>7</v>
       </c>
       <c r="AB11">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="AC11">
-        <v>3581</v>
+        <v>104</v>
       </c>
       <c r="AD11">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="AE11">
-        <v>70.55</v>
+        <v>18.09</v>
       </c>
       <c r="AF11">
-        <v>50.58</v>
+        <v>0.04</v>
       </c>
       <c r="AG11">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AI11">
-        <v>0.5</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B12" t="str">
-        <v>723a1ed4e159ea4edeb2ad3d4d1ffd9645c18328</v>
+        <v>c2df2e5a5a9f2d4bd61a5044487e189c711d4be9</v>
       </c>
       <c r="C12" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:723a1ed4e159ea4edeb2ad3d4d1ffd9645c18328</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:c2df2e5a5a9f2d4bd61a5044487e189c711d4be9</v>
       </c>
       <c r="D12" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E12" t="str">
         <v>ehsxmng</v>
@@ -1632,82 +1632,82 @@
         <v>unknown</v>
       </c>
       <c r="J12" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K12" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L12" t="str">
-        <v>[PC] Replace Any with optional</v>
+        <v>[SP:399] Updated parameter generation for boosting</v>
       </c>
       <c r="M12" t="str">
-        <v>2023-08-22</v>
+        <v>2019-10-02</v>
       </c>
       <c r="N12" t="str">
-        <v>2023-08-22</v>
+        <v>2019-10-02</v>
       </c>
       <c r="O12" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P12">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>348</v>
+        <v>139</v>
       </c>
       <c r="V12">
-        <v>411</v>
+        <v>35</v>
       </c>
       <c r="W12">
-        <v>-63</v>
+        <v>104</v>
       </c>
       <c r="X12">
-        <v>759</v>
+        <v>174</v>
       </c>
       <c r="Y12">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>523</v>
+        <v>139</v>
       </c>
       <c r="AA12">
-        <v>589</v>
+        <v>35</v>
       </c>
       <c r="AB12">
-        <v>-66</v>
+        <v>104</v>
       </c>
       <c r="AC12">
-        <v>1112</v>
+        <v>174</v>
       </c>
       <c r="AD12">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>76.43</v>
+        <v>18.94</v>
       </c>
       <c r="AF12">
-        <v>59.6</v>
+        <v>0.04</v>
       </c>
       <c r="AG12">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="AH12">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="AI12">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
@@ -1715,13 +1715,13 @@
         <v>[PC]</v>
       </c>
       <c r="B13" t="str">
-        <v>b5ce5fcf7153a09a979e84554ca4bc6b2c790d72</v>
+        <v>6a0bc5527c317f2f24e23bab32747dc0259c1ad7</v>
       </c>
       <c r="C13" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:b5ce5fcf7153a09a979e84554ca4bc6b2c790d72</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:6a0bc5527c317f2f24e23bab32747dc0259c1ad7</v>
       </c>
       <c r="D13" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E13" t="str">
         <v>ehsxmng</v>
@@ -1739,96 +1739,96 @@
         <v>unknown</v>
       </c>
       <c r="J13" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K13" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L13" t="str">
-        <v>[PC] Replace Any with optional</v>
+        <v>[PC] NRHB-3528: Adding STF Testing for OMS TOR</v>
       </c>
       <c r="M13" t="str">
-        <v>2023-09-07</v>
+        <v>2019-10-29</v>
       </c>
       <c r="N13" t="str">
-        <v>2023-09-07</v>
+        <v>2019-10-29</v>
       </c>
       <c r="O13" t="str">
         <v>source test</v>
       </c>
       <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>802</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>802</v>
+      </c>
+      <c r="X13">
+        <v>802</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="Z13">
+        <v>803</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>802</v>
+      </c>
+      <c r="AC13">
+        <v>804</v>
+      </c>
+      <c r="AD13">
+        <v>13</v>
+      </c>
+      <c r="AE13">
+        <v>22.85</v>
+      </c>
+      <c r="AF13">
+        <v>0.08</v>
+      </c>
+      <c r="AG13">
         <v>216</v>
       </c>
-      <c r="Q13">
-        <v>216</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>432</v>
-      </c>
-      <c r="T13">
-        <v>18</v>
-      </c>
-      <c r="U13">
-        <v>708</v>
-      </c>
-      <c r="V13">
-        <v>704</v>
-      </c>
-      <c r="W13">
-        <v>4</v>
-      </c>
-      <c r="X13">
-        <v>1412</v>
-      </c>
-      <c r="Y13">
-        <v>24</v>
-      </c>
-      <c r="Z13">
-        <v>924</v>
-      </c>
-      <c r="AA13">
-        <v>920</v>
-      </c>
-      <c r="AB13">
-        <v>4</v>
-      </c>
-      <c r="AC13">
-        <v>1844</v>
-      </c>
-      <c r="AD13">
-        <v>42</v>
-      </c>
-      <c r="AE13">
-        <v>87.36</v>
-      </c>
-      <c r="AF13">
-        <v>70.64</v>
-      </c>
-      <c r="AG13">
-        <v>240</v>
-      </c>
       <c r="AH13">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AI13">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>[PC]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B14" t="str">
-        <v>deb4bca6e57c095e2f3886b61be6b901c5bba929</v>
+        <v>a106b46f25fe3bdba8262d2e4b4f8d711c74baaf</v>
       </c>
       <c r="C14" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:deb4bca6e57c095e2f3886b61be6b901c5bba929</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:a106b46f25fe3bdba8262d2e4b4f8d711c74baaf</v>
       </c>
       <c r="D14" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E14" t="str">
         <v>ehsxmng</v>
@@ -1846,96 +1846,96 @@
         <v>unknown</v>
       </c>
       <c r="J14" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K14" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L14" t="str">
-        <v>[PC] Replace Any with optional</v>
+        <v>[SP:399] Adding new load option</v>
       </c>
       <c r="M14" t="str">
-        <v>2023-09-14</v>
+        <v>2019-11-29</v>
       </c>
       <c r="N14" t="str">
-        <v>2023-09-14</v>
+        <v>2019-11-29</v>
       </c>
       <c r="O14" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P14">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>153</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
         <v>146</v>
       </c>
-      <c r="R14">
+      <c r="X14">
+        <v>160</v>
+      </c>
+      <c r="Y14">
         <v>2</v>
       </c>
-      <c r="S14">
-        <v>294</v>
-      </c>
-      <c r="T14">
-        <v>40</v>
-      </c>
-      <c r="U14">
-        <v>239</v>
-      </c>
-      <c r="V14">
-        <v>234</v>
-      </c>
-      <c r="W14">
-        <v>5</v>
-      </c>
-      <c r="X14">
-        <v>473</v>
-      </c>
-      <c r="Y14">
-        <v>40</v>
-      </c>
       <c r="Z14">
-        <v>387</v>
+        <v>153</v>
       </c>
       <c r="AA14">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="AB14">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="AC14">
-        <v>767</v>
+        <v>160</v>
       </c>
       <c r="AD14">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="AE14">
-        <v>91.02</v>
+        <v>23.63</v>
       </c>
       <c r="AF14">
-        <v>78.15</v>
+        <v>0.08</v>
       </c>
       <c r="AG14">
         <v>247</v>
       </c>
       <c r="AH14">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="AI14">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>[SP:11022-SP12]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B15" t="str">
-        <v>cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+        <v>fdaf0290c693dc8cbc497f13301329e49ea953f0</v>
       </c>
       <c r="C15" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:fdaf0290c693dc8cbc497f13301329e49ea953f0</v>
       </c>
       <c r="D15" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E15" t="str">
         <v>ehsxmng</v>
@@ -1959,90 +1959,90 @@
         <v>MSRBS</v>
       </c>
       <c r="L15" t="str">
-        <v>[SP:11022-SP12] Update cellInfoId Interface</v>
+        <v>[SP:399] Boosting last PRBs</v>
       </c>
       <c r="M15" t="str">
-        <v>2023-11-18</v>
+        <v>2019-12-08</v>
       </c>
       <c r="N15" t="str">
-        <v>2023-11-18</v>
+        <v>2019-12-08</v>
       </c>
       <c r="O15" t="str">
-        <v>source</v>
+        <v>source test</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC15">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>91.02</v>
+        <v>23.77</v>
       </c>
       <c r="AF15">
-        <v>78.25</v>
+        <v>0.12</v>
       </c>
       <c r="AG15">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="AH15">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="AI15">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>[TCUEPC-437]</v>
+        <v>[SP:399]</v>
       </c>
       <c r="B16" t="str">
-        <v>931e9c2c5e68a63517819276d7eb96bd5f641120</v>
+        <v>29ac484d4eec3a7deedcea39f1523a0f5a618afd</v>
       </c>
       <c r="C16" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:931e9c2c5e68a63517819276d7eb96bd5f641120</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:29ac484d4eec3a7deedcea39f1523a0f5a618afd</v>
       </c>
       <c r="D16" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E16" t="str">
         <v>ehsxmng</v>
@@ -2060,19 +2060,19 @@
         <v>unknown</v>
       </c>
       <c r="J16" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K16" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L16" t="str">
-        <v>[TCUEPC-437] coverage for rsrp_util</v>
+        <v>[SP:399] Changed dciMsg to 0</v>
       </c>
       <c r="M16" t="str">
-        <v>2023-11-27</v>
+        <v>2019-12-11</v>
       </c>
       <c r="N16" t="str">
-        <v>2023-11-27</v>
+        <v>2019-12-11</v>
       </c>
       <c r="O16" t="str">
         <v>test</v>
@@ -2093,63 +2093,63 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>4</v>
       </c>
-      <c r="X16">
-        <v>6</v>
-      </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>4</v>
       </c>
-      <c r="AC16">
-        <v>6</v>
-      </c>
       <c r="AD16">
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>91.07</v>
+        <v>23.79</v>
       </c>
       <c r="AF16">
-        <v>78.25</v>
+        <v>0.12</v>
       </c>
       <c r="AG16">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="AH16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AI16">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>[TCUEPC-437]</v>
+        <v>[TASK]</v>
       </c>
       <c r="B17" t="str">
-        <v>9ce191a79a775c8852fcfe48cca23d80e818fe19</v>
+        <v>5593f68906817066c150831b7076ac2adf197974</v>
       </c>
       <c r="C17" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:9ce191a79a775c8852fcfe48cca23d80e818fe19</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:5593f68906817066c150831b7076ac2adf197974</v>
       </c>
       <c r="D17" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E17" t="str">
         <v>ehsxmng</v>
@@ -2167,19 +2167,19 @@
         <v>unknown</v>
       </c>
       <c r="J17" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K17" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L17" t="str">
-        <v>[TCUEPC-437] Coverage for additional_service_info</v>
+        <v>[task] Patch for RE grid plotting tool</v>
       </c>
       <c r="M17" t="str">
-        <v>2023-12-05</v>
+        <v>2020-03-05</v>
       </c>
       <c r="N17" t="str">
-        <v>2023-12-05</v>
+        <v>2020-03-05</v>
       </c>
       <c r="O17" t="str">
         <v>test</v>
@@ -2200,63 +2200,63 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
       <c r="Z17">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB17">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="AD17">
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>91.44</v>
+        <v>23.82</v>
       </c>
       <c r="AF17">
-        <v>78.25</v>
+        <v>0.12</v>
       </c>
       <c r="AG17">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="AH17">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="AI17">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>[SP:11022-SP12]</v>
+        <v>[SP:07011-0]</v>
       </c>
       <c r="B18" t="str">
-        <v>236fd51082f64ea82e70fd52f04841af3463f820</v>
+        <v>78ad550729717e67a49940ed740e4119e8b6271a</v>
       </c>
       <c r="C18" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:236fd51082f64ea82e70fd52f04841af3463f820</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:78ad550729717e67a49940ed740e4119e8b6271a</v>
       </c>
       <c r="D18" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E18" t="str">
         <v>ehsxmng</v>
@@ -2280,90 +2280,90 @@
         <v>MSRBS</v>
       </c>
       <c r="L18" t="str">
-        <v>[SP:11022-SP12] AggresiveUss SCs</v>
+        <v>[SP:07011-0] CSIRS FDD MCT Tests</v>
       </c>
       <c r="M18" t="str">
-        <v>2023-12-16</v>
+        <v>2020-03-05</v>
       </c>
       <c r="N18" t="str">
-        <v>2023-12-16</v>
+        <v>2020-03-05</v>
       </c>
       <c r="O18" t="str">
         <v>source test</v>
       </c>
       <c r="P18">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W18">
-        <v>8</v>
+        <v>332</v>
       </c>
       <c r="X18">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z18">
-        <v>192</v>
+        <v>337</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB18">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="AC18">
-        <v>195</v>
+        <v>341</v>
       </c>
       <c r="AD18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE18">
-        <v>91.5</v>
+        <v>25.48</v>
       </c>
       <c r="AF18">
-        <v>83.03</v>
+        <v>0.14</v>
       </c>
       <c r="AG18">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AH18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>[SP:11022-SP12]</v>
+        <v>[SP:07011-0]</v>
       </c>
       <c r="B19" t="str">
-        <v>3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+        <v>9efef9edf604999593bcbff8ece492af71794400</v>
       </c>
       <c r="C19" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:9efef9edf604999593bcbff8ece492af71794400</v>
       </c>
       <c r="D19" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E19" t="str">
         <v>ehsxmng</v>
@@ -2387,90 +2387,90 @@
         <v>MSRBS</v>
       </c>
       <c r="L19" t="str">
-        <v>[SP:11022-SP12] AggresiveUss SCs Fix</v>
+        <v>[SP:07011-0] CSIRS FDD MCT Tests Update</v>
       </c>
       <c r="M19" t="str">
-        <v>2023-12-20</v>
+        <v>2020-03-05</v>
       </c>
       <c r="N19" t="str">
-        <v>2023-12-20</v>
+        <v>2020-03-05</v>
       </c>
       <c r="O19" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W19">
-        <v>-3</v>
+        <v>54</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="AA19">
+        <v>5</v>
+      </c>
+      <c r="AB19">
+        <v>54</v>
+      </c>
+      <c r="AC19">
+        <v>64</v>
+      </c>
+      <c r="AD19">
         <v>4</v>
       </c>
-      <c r="AB19">
-        <v>-3</v>
-      </c>
-      <c r="AC19">
-        <v>5</v>
-      </c>
-      <c r="AD19">
-        <v>3</v>
-      </c>
       <c r="AE19">
-        <v>91.52</v>
+        <v>25.79</v>
       </c>
       <c r="AF19">
-        <v>83.08</v>
+        <v>0.14</v>
       </c>
       <c r="AG19">
         <v>344</v>
       </c>
       <c r="AH19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>[TCUEPC-437]</v>
+        <v>[SP:07011-1]</v>
       </c>
       <c r="B20" t="str">
-        <v>35354cef8db0d7966ec27f40f6f8908fbd609638</v>
+        <v>04de9140a6b9096a9e850f51f0d33047d037e8b3</v>
       </c>
       <c r="C20" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:35354cef8db0d7966ec27f40f6f8908fbd609638</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:04de9140a6b9096a9e850f51f0d33047d037e8b3</v>
       </c>
       <c r="D20" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E20" t="str">
         <v>ehsxmng</v>
@@ -2488,19 +2488,19 @@
         <v>unknown</v>
       </c>
       <c r="J20" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K20" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L20" t="str">
-        <v>[TCUEPC-437] Coverage for scells_util</v>
+        <v>[SP:07011-1] CSIRS TRS PDSCH EO Testcase</v>
       </c>
       <c r="M20" t="str">
-        <v>2024-01-08</v>
+        <v>2020-08-17</v>
       </c>
       <c r="N20" t="str">
-        <v>2024-01-08</v>
+        <v>2020-08-17</v>
       </c>
       <c r="O20" t="str">
         <v>test</v>
@@ -2521,63 +2521,63 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="X20">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z20">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AC20">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE20">
-        <v>92.86</v>
+        <v>26.65</v>
       </c>
       <c r="AF20">
-        <v>83.08</v>
+        <v>0.14</v>
       </c>
       <c r="AG20">
-        <v>363</v>
+        <v>509</v>
       </c>
       <c r="AH20">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="AI20">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>[SP:11023-SP2]</v>
+        <v>[SP:07011-1]</v>
       </c>
       <c r="B21" t="str">
-        <v>24916b53d08418c514f3978ea784a1ac0a9ffda7</v>
+        <v>f33e0466e2920a78f70c1a07ed6be9e0313652df</v>
       </c>
       <c r="C21" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:24916b53d08418c514f3978ea784a1ac0a9ffda7</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:f33e0466e2920a78f70c1a07ed6be9e0313652df</v>
       </c>
       <c r="D21" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E21" t="str">
         <v>ehsxmng</v>
@@ -2601,90 +2601,90 @@
         <v>MSRBS</v>
       </c>
       <c r="L21" t="str">
-        <v>[SP:11023-SP2] SC for delayTx</v>
+        <v>[SP:07011-1] CSIRS TRS PDSCH EO Testcase Fix</v>
       </c>
       <c r="M21" t="str">
-        <v>2024-02-06</v>
+        <v>2020-08-19</v>
       </c>
       <c r="N21" t="str">
-        <v>2024-02-06</v>
+        <v>2020-08-19</v>
       </c>
       <c r="O21" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="P21">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>26.66</v>
+      </c>
+      <c r="AF21">
+        <v>0.14</v>
+      </c>
+      <c r="AG21">
+        <v>511</v>
+      </c>
+      <c r="AH21">
         <v>2</v>
       </c>
-      <c r="Z21">
-        <v>352</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>352</v>
-      </c>
-      <c r="AC21">
-        <v>352</v>
-      </c>
-      <c r="AD21">
-        <v>7</v>
-      </c>
-      <c r="AE21">
-        <v>93.05</v>
-      </c>
-      <c r="AF21">
-        <v>91.46</v>
-      </c>
-      <c r="AG21">
-        <v>392</v>
-      </c>
-      <c r="AH21">
-        <v>29</v>
-      </c>
       <c r="AI21">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>[SP:FPTA-MR000494-SP1]</v>
+        <v>[SP:07011-1]</v>
       </c>
       <c r="B22" t="str">
-        <v>a7b71ac6c315fdd6b55e1c1676a3117c2cd00353</v>
+        <v>40a4807502a4a3bf8d83a62d75e7d8dba084aea9</v>
       </c>
       <c r="C22" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:a7b71ac6c315fdd6b55e1c1676a3117c2cd00353</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:40a4807502a4a3bf8d83a62d75e7d8dba084aea9</v>
       </c>
       <c r="D22" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E22" t="str">
         <v>ehsxmng</v>
@@ -2702,96 +2702,96 @@
         <v>unknown</v>
       </c>
       <c r="J22" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K22" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L22" t="str">
-        <v>[SP:FPTA-MR000494-SP1] Removing nrCaSchedOptimForExtScellsEnable</v>
+        <v>[SP:07011-1] 32 ports CSIRS TRS PDSCH EO Testcase</v>
       </c>
       <c r="M22" t="str">
-        <v>2024-02-06</v>
+        <v>2020-09-28</v>
       </c>
       <c r="N22" t="str">
-        <v>2024-02-06</v>
+        <v>2020-09-28</v>
       </c>
       <c r="O22" t="str">
-        <v>source</v>
+        <v>test</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>-179</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="AA22">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>-179</v>
+        <v>174</v>
       </c>
       <c r="AC22">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AD22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE22">
-        <v>93.05</v>
+        <v>27.5</v>
       </c>
       <c r="AF22">
-        <v>96.09</v>
+        <v>0.14</v>
       </c>
       <c r="AG22">
-        <v>392</v>
+        <v>551</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>[SP:11023-SP2]</v>
+        <v>[MH:HY33828]</v>
       </c>
       <c r="B23" t="str">
-        <v>bc68b6a23f66c359faa95e301698d9a198c918d0</v>
+        <v>b5b0cdf2db6323919323b873d0d7523b71e10038</v>
       </c>
       <c r="C23" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:bc68b6a23f66c359faa95e301698d9a198c918d0</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:b5b0cdf2db6323919323b873d0d7523b71e10038</v>
       </c>
       <c r="D23" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E23" t="str">
         <v>ehsxmng</v>
@@ -2815,90 +2815,90 @@
         <v>MSRBS</v>
       </c>
       <c r="L23" t="str">
-        <v>[SP:11023-SP2] Small delayTx for Response Handling</v>
+        <v>[MH:HY33828] 3GPP CR for RAN4 Random Payload</v>
       </c>
       <c r="M23" t="str">
-        <v>2024-03-14</v>
+        <v>2020-05-12</v>
       </c>
       <c r="N23" t="str">
-        <v>2024-03-14</v>
+        <v>2020-12-02</v>
       </c>
       <c r="O23" t="str">
         <v>source test</v>
       </c>
       <c r="P23">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="S23">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>49</v>
+      </c>
+      <c r="AA23">
         <v>6</v>
       </c>
-      <c r="U23">
-        <v>511</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>511</v>
-      </c>
-      <c r="X23">
-        <v>511</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>635</v>
-      </c>
-      <c r="AA23">
-        <v>29</v>
-      </c>
       <c r="AB23">
-        <v>606</v>
+        <v>43</v>
       </c>
       <c r="AC23">
-        <v>664</v>
+        <v>55</v>
       </c>
       <c r="AD23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE23">
-        <v>97</v>
+        <v>27.52</v>
       </c>
       <c r="AF23">
-        <v>100</v>
+        <v>1.14</v>
       </c>
       <c r="AG23">
-        <v>429</v>
+        <v>616</v>
       </c>
       <c r="AH23">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AI23">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>[PC]</v>
+        <v>[SP:07011-1]</v>
       </c>
       <c r="B24" t="str">
-        <v>55e9065adf904372329f87ba3e2b25929529a8a1</v>
+        <v>7448c127e845b455c7ed0c0af1e0f7f36de689a7</v>
       </c>
       <c r="C24" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:55e9065adf904372329f87ba3e2b25929529a8a1</v>
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:7448c127e845b455c7ed0c0af1e0f7f36de689a7</v>
       </c>
       <c r="D24" t="str">
-        <v>gerrit</v>
+        <v>gerrit-archive</v>
       </c>
       <c r="E24" t="str">
         <v>ehsxmng</v>
@@ -2916,19 +2916,19 @@
         <v>unknown</v>
       </c>
       <c r="J24" t="str">
-        <v>5g/src/rpcppg2</v>
+        <v>5g/src/nrbbphy</v>
       </c>
       <c r="K24" t="str">
         <v>MSRBS</v>
       </c>
       <c r="L24" t="str">
-        <v>[PC] MCT test for SrHandling</v>
+        <v>[SP:07011-1] CSIRS TRS PDSCH EO Testcase</v>
       </c>
       <c r="M24" t="str">
-        <v>2024-05-27</v>
+        <v>2021-01-15</v>
       </c>
       <c r="N24" t="str">
-        <v>2024-05-27</v>
+        <v>2021-01-15</v>
       </c>
       <c r="O24" t="str">
         <v>test</v>
@@ -2949,83 +2949,5112 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="X24">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z24">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="AC24">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24">
-        <v>100</v>
+        <v>28.38</v>
       </c>
       <c r="AF24">
-        <v>100</v>
+        <v>1.14</v>
       </c>
       <c r="AG24">
-        <v>503</v>
+        <v>660</v>
       </c>
       <c r="AH24">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="AI24">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25">
-      <c r="AJ25">
-        <v>503</v>
-      </c>
-      <c r="AK25" t="str">
+      <c r="A25" t="str">
+        <v>[SP:07011-1]</v>
+      </c>
+      <c r="B25" t="str">
+        <v>25e45eaa3530c7070e93dcf8307d3f13cd8c32f5</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:25e45eaa3530c7070e93dcf8307d3f13cd8c32f5</v>
+      </c>
+      <c r="D25" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E25" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G25" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I25" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J25" t="str">
+        <v>5g/src/nrbbphy</v>
+      </c>
+      <c r="K25" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L25" t="str">
+        <v>[SP:07011-1] CSIRS TRS PDSCH EO Testcase Fix</v>
+      </c>
+      <c r="M25" t="str">
+        <v>2021-01-21</v>
+      </c>
+      <c r="N25" t="str">
+        <v>2021-01-21</v>
+      </c>
+      <c r="O25" t="str">
+        <v>test</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>2</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>28.39</v>
+      </c>
+      <c r="AF25">
+        <v>1.14</v>
+      </c>
+      <c r="AG25">
+        <v>666</v>
+      </c>
+      <c r="AH25">
+        <v>6</v>
+      </c>
+      <c r="AI25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B26" t="str">
+        <v>6c07cfa47b8e747eec8aa3282ac65b2cc94fa426</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:6c07cfa47b8e747eec8aa3282ac65b2cc94fa426</v>
+      </c>
+      <c r="D26" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E26" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G26" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I26" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J26" t="str">
+        <v>5g/src/nrbbphy</v>
+      </c>
+      <c r="K26" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L26" t="str">
+        <v>[PC] Retest PN23 random sequence generator</v>
+      </c>
+      <c r="M26" t="str">
+        <v>2021-02-16</v>
+      </c>
+      <c r="N26" t="str">
+        <v>2021-02-16</v>
+      </c>
+      <c r="O26" t="str">
+        <v>source</v>
+      </c>
+      <c r="P26">
+        <v>16</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>25</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>16</v>
+      </c>
+      <c r="AA26">
+        <v>9</v>
+      </c>
+      <c r="AB26">
+        <v>7</v>
+      </c>
+      <c r="AC26">
+        <v>25</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>28.39</v>
+      </c>
+      <c r="AF26">
+        <v>1.63</v>
+      </c>
+      <c r="AG26">
+        <v>692</v>
+      </c>
+      <c r="AH26">
+        <v>26</v>
+      </c>
+      <c r="AI26">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B27" t="str">
+        <v>592c83383b7215c20c65e85aa77ca6c9c8cd3c15</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:592c83383b7215c20c65e85aa77ca6c9c8cd3c15</v>
+      </c>
+      <c r="D27" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E27" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G27" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I27" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J27" t="str">
+        <v>5g/src/nrbbphy</v>
+      </c>
+      <c r="K27" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L27" t="str">
+        <v>[PC] CSIRS Yaml Cleanup</v>
+      </c>
+      <c r="M27" t="str">
+        <v>2021-03-01</v>
+      </c>
+      <c r="N27" t="str">
+        <v>2021-03-01</v>
+      </c>
+      <c r="O27" t="str">
+        <v>test</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>195</v>
+      </c>
+      <c r="W27">
+        <v>-195</v>
+      </c>
+      <c r="X27">
+        <v>195</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>195</v>
+      </c>
+      <c r="AB27">
+        <v>-195</v>
+      </c>
+      <c r="AC27">
+        <v>195</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27">
+        <v>29.34</v>
+      </c>
+      <c r="AF27">
+        <v>1.63</v>
+      </c>
+      <c r="AG27">
+        <v>705</v>
+      </c>
+      <c r="AH27">
+        <v>13</v>
+      </c>
+      <c r="AI27">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B28" t="str">
+        <v>1f89465ac3f89b1acede99de966d4c6cc03a851d</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:1f89465ac3f89b1acede99de966d4c6cc03a851d</v>
+      </c>
+      <c r="D28" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E28" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G28" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I28" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J28" t="str">
+        <v>5g/src/nrbbphy</v>
+      </c>
+      <c r="K28" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L28" t="str">
+        <v>[PC] MTD Target Name Fix</v>
+      </c>
+      <c r="M28" t="str">
+        <v>2021-03-26</v>
+      </c>
+      <c r="N28" t="str">
+        <v>2021-03-26</v>
+      </c>
+      <c r="O28" t="str">
+        <v>source</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>29.34</v>
+      </c>
+      <c r="AF28">
+        <v>1.67</v>
+      </c>
+      <c r="AG28">
+        <v>730</v>
+      </c>
+      <c r="AH28">
+        <v>25</v>
+      </c>
+      <c r="AI28">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B29" t="str">
+        <v>3cfb178459831000ce491b65ecef96dd6e071666</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:3cfb178459831000ce491b65ecef96dd6e071666</v>
+      </c>
+      <c r="D29" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E29" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G29" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I29" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J29" t="str">
+        <v>5g/src/nrbbphy</v>
+      </c>
+      <c r="K29" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L29" t="str">
+        <v>[PC] MTD Parameter Array Size Check</v>
+      </c>
+      <c r="M29" t="str">
+        <v>2021-04-18</v>
+      </c>
+      <c r="N29" t="str">
+        <v>2021-04-18</v>
+      </c>
+      <c r="O29" t="str">
+        <v>test</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>24</v>
+      </c>
+      <c r="V29">
+        <v>15</v>
+      </c>
+      <c r="W29">
+        <v>9</v>
+      </c>
+      <c r="X29">
+        <v>39</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>24</v>
+      </c>
+      <c r="AA29">
+        <v>15</v>
+      </c>
+      <c r="AB29">
+        <v>9</v>
+      </c>
+      <c r="AC29">
+        <v>39</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>29.53</v>
+      </c>
+      <c r="AF29">
+        <v>1.67</v>
+      </c>
+      <c r="AG29">
+        <v>753</v>
+      </c>
+      <c r="AH29">
+        <v>23</v>
+      </c>
+      <c r="AI29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0e435ced1d003a2cf1027de8a3daf39e00921e27</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:0e435ced1d003a2cf1027de8a3daf39e00921e27</v>
+      </c>
+      <c r="D30" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E30" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G30" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I30" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J30" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K30" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L30" t="str">
+        <v>[PC] rpcUe: Restructuring GeneralCellConfig</v>
+      </c>
+      <c r="M30" t="str">
+        <v>2021-12-09</v>
+      </c>
+      <c r="N30" t="str">
+        <v>2021-12-10</v>
+      </c>
+      <c r="O30" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P30">
+        <v>98</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>92</v>
+      </c>
+      <c r="S30">
+        <v>104</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>71</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>69</v>
+      </c>
+      <c r="X30">
+        <v>73</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>169</v>
+      </c>
+      <c r="AA30">
+        <v>8</v>
+      </c>
+      <c r="AB30">
+        <v>161</v>
+      </c>
+      <c r="AC30">
+        <v>177</v>
+      </c>
+      <c r="AD30">
+        <v>4</v>
+      </c>
+      <c r="AE30">
+        <v>29.89</v>
+      </c>
+      <c r="AF30">
+        <v>3.68</v>
+      </c>
+      <c r="AG30">
+        <v>989</v>
+      </c>
+      <c r="AH30">
+        <v>236</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>[SP:07011-5]</v>
+      </c>
+      <c r="B31" t="str">
+        <v>e347ccb48ece6f1ab86a437f14ac9ead8ecabf7f</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:e347ccb48ece6f1ab86a437f14ac9ead8ecabf7f</v>
+      </c>
+      <c r="D31" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E31" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G31" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I31" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J31" t="str">
+        <v>5g/if/bbcci</v>
+      </c>
+      <c r="K31" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L31" t="str">
+        <v>[SP:07011-5] DL/Ul SCMI adding sectorCarrierType</v>
+      </c>
+      <c r="M31" t="str">
+        <v>2021-12-23</v>
+      </c>
+      <c r="N31" t="str">
+        <v>2021-12-23</v>
+      </c>
+      <c r="O31" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P31">
+        <v>122</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>122</v>
+      </c>
+      <c r="S31">
+        <v>122</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>34</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>34</v>
+      </c>
+      <c r="X31">
+        <v>34</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>156</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>156</v>
+      </c>
+      <c r="AC31">
+        <v>156</v>
+      </c>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+      <c r="AE31">
+        <v>30.06</v>
+      </c>
+      <c r="AF31">
+        <v>6.05</v>
+      </c>
+      <c r="AG31">
+        <v>1002</v>
+      </c>
+      <c r="AH31">
+        <v>13</v>
+      </c>
+      <c r="AI31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>[SP:07011-5]</v>
+      </c>
+      <c r="B32" t="str">
+        <v>91c7208cf7b5f9f1d1e426d4a05989f6b393c4a8</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:91c7208cf7b5f9f1d1e426d4a05989f6b393c4a8</v>
+      </c>
+      <c r="D32" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E32" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G32" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I32" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J32" t="str">
+        <v>lte/src/ltebb</v>
+      </c>
+      <c r="K32" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L32" t="str">
+        <v>[SP:07011-5] Add DS carrierSubDivisionId</v>
+      </c>
+      <c r="M32" t="str">
+        <v>2022-02-18</v>
+      </c>
+      <c r="N32" t="str">
+        <v>2022-02-18</v>
+      </c>
+      <c r="O32" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P32">
+        <v>28</v>
+      </c>
+      <c r="Q32">
+        <v>13</v>
+      </c>
+      <c r="R32">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>41</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>11</v>
+      </c>
+      <c r="V32">
+        <v>11</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>22</v>
+      </c>
+      <c r="Y32">
+        <v>11</v>
+      </c>
+      <c r="Z32">
+        <v>39</v>
+      </c>
+      <c r="AA32">
+        <v>24</v>
+      </c>
+      <c r="AB32">
+        <v>15</v>
+      </c>
+      <c r="AC32">
+        <v>63</v>
+      </c>
+      <c r="AD32">
+        <v>21</v>
+      </c>
+      <c r="AE32">
+        <v>30.16</v>
+      </c>
+      <c r="AF32">
+        <v>6.85</v>
+      </c>
+      <c r="AG32">
+        <v>1059</v>
+      </c>
+      <c r="AH32">
+        <v>57</v>
+      </c>
+      <c r="AI32">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B33" t="str">
+        <v>0a95cf54686ae58f45ef0bafe71ee8e031d0cd1d</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:0a95cf54686ae58f45ef0bafe71ee8e031d0cd1d</v>
+      </c>
+      <c r="D33" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E33" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G33" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I33" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J33" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K33" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L33" t="str">
+        <v>[PC] Migrate UeCellInfo params to GeneralCellConfig</v>
+      </c>
+      <c r="M33" t="str">
+        <v>2022-02-22</v>
+      </c>
+      <c r="N33" t="str">
+        <v>2022-02-23</v>
+      </c>
+      <c r="O33" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P33">
+        <v>69</v>
+      </c>
+      <c r="Q33">
+        <v>89</v>
+      </c>
+      <c r="R33">
+        <v>-20</v>
+      </c>
+      <c r="S33">
+        <v>158</v>
+      </c>
+      <c r="T33">
+        <v>8</v>
+      </c>
+      <c r="U33">
+        <v>110</v>
+      </c>
+      <c r="V33">
+        <v>148</v>
+      </c>
+      <c r="W33">
+        <v>-38</v>
+      </c>
+      <c r="X33">
+        <v>258</v>
+      </c>
+      <c r="Y33">
+        <v>16</v>
+      </c>
+      <c r="Z33">
+        <v>179</v>
+      </c>
+      <c r="AA33">
+        <v>237</v>
+      </c>
+      <c r="AB33">
+        <v>-58</v>
+      </c>
+      <c r="AC33">
+        <v>416</v>
+      </c>
+      <c r="AD33">
+        <v>24</v>
+      </c>
+      <c r="AE33">
+        <v>31.42</v>
+      </c>
+      <c r="AF33">
+        <v>9.91</v>
+      </c>
+      <c r="AG33">
+        <v>1064</v>
+      </c>
+      <c r="AH33">
+        <v>5</v>
+      </c>
+      <c r="AI33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>[SP:07011-5]</v>
+      </c>
+      <c r="B34" t="str">
+        <v>fcccff208255838f8f4e62261693025fb7de8028</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:fcccff208255838f8f4e62261693025fb7de8028</v>
+      </c>
+      <c r="D34" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E34" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G34" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I34" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J34" t="str">
+        <v>lte/nodeif</v>
+      </c>
+      <c r="K34" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="L34" t="str">
+        <v>[SP:07011-5] Adding struct fddAasDbfDataC2S</v>
+      </c>
+      <c r="M34" t="str">
+        <v>2022-03-02</v>
+      </c>
+      <c r="N34" t="str">
+        <v>2022-03-02</v>
+      </c>
+      <c r="O34" t="str">
+        <v>source</v>
+      </c>
+      <c r="P34">
+        <v>97</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>96</v>
+      </c>
+      <c r="S34">
+        <v>98</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>97</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>96</v>
+      </c>
+      <c r="AC34">
+        <v>98</v>
+      </c>
+      <c r="AD34">
+        <v>3</v>
+      </c>
+      <c r="AE34">
+        <v>31.42</v>
+      </c>
+      <c r="AF34">
+        <v>11.81</v>
+      </c>
+      <c r="AG34">
+        <v>1071</v>
+      </c>
+      <c r="AH34">
+        <v>7</v>
+      </c>
+      <c r="AI34">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>[SP:07011-5]</v>
+      </c>
+      <c r="B35" t="str">
+        <v>9665a9507b1f0577d193f7e38043295873fdb0e8</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:9665a9507b1f0577d193f7e38043295873fdb0e8</v>
+      </c>
+      <c r="D35" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E35" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G35" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I35" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J35" t="str">
+        <v>5g/if/bbcci</v>
+      </c>
+      <c r="K35" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L35" t="str">
+        <v>[SP:07011-5] Fix typo for one sectorCarrierType</v>
+      </c>
+      <c r="M35" t="str">
+        <v>2022-03-07</v>
+      </c>
+      <c r="N35" t="str">
+        <v>2022-03-07</v>
+      </c>
+      <c r="O35" t="str">
+        <v>source</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>4</v>
+      </c>
+      <c r="AD35">
+        <v>2</v>
+      </c>
+      <c r="AE35">
+        <v>31.42</v>
+      </c>
+      <c r="AF35">
+        <v>11.89</v>
+      </c>
+      <c r="AG35">
+        <v>1076</v>
+      </c>
+      <c r="AH35">
+        <v>5</v>
+      </c>
+      <c r="AI35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B36" t="str">
+        <v>b3aa562ab11539ff9908f79ccd63b1a343d6d8c1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:b3aa562ab11539ff9908f79ccd63b1a343d6d8c1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E36" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G36" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I36" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J36" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K36" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L36" t="str">
+        <v>[PC] Migrating UeCellInfo params</v>
+      </c>
+      <c r="M36" t="str">
+        <v>2022-03-31</v>
+      </c>
+      <c r="N36" t="str">
+        <v>2022-03-31</v>
+      </c>
+      <c r="O36" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P36">
+        <v>21</v>
+      </c>
+      <c r="Q36">
+        <v>20</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>41</v>
+      </c>
+      <c r="T36">
+        <v>8</v>
+      </c>
+      <c r="U36">
+        <v>47</v>
+      </c>
+      <c r="V36">
+        <v>49</v>
+      </c>
+      <c r="W36">
+        <v>-2</v>
+      </c>
+      <c r="X36">
+        <v>96</v>
+      </c>
+      <c r="Y36">
+        <v>17</v>
+      </c>
+      <c r="Z36">
+        <v>68</v>
+      </c>
+      <c r="AA36">
+        <v>69</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
+        <v>137</v>
+      </c>
+      <c r="AD36">
+        <v>25</v>
+      </c>
+      <c r="AE36">
+        <v>31.89</v>
+      </c>
+      <c r="AF36">
+        <v>12.68</v>
+      </c>
+      <c r="AG36">
+        <v>1100</v>
+      </c>
+      <c r="AH36">
+        <v>24</v>
+      </c>
+      <c r="AI36">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B37" t="str">
+        <v>60d74cd2b03929b9c2ad503747b57c20d8287ffb</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:60d74cd2b03929b9c2ad503747b57c20d8287ffb</v>
+      </c>
+      <c r="D37" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E37" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G37" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I37" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J37" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K37" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L37" t="str">
+        <v>[PC] Cleanup CP/Action Input and Output</v>
+      </c>
+      <c r="M37" t="str">
+        <v>2022-04-06</v>
+      </c>
+      <c r="N37" t="str">
+        <v>2022-04-06</v>
+      </c>
+      <c r="O37" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P37">
+        <v>23</v>
+      </c>
+      <c r="Q37">
+        <v>107</v>
+      </c>
+      <c r="R37">
+        <v>-84</v>
+      </c>
+      <c r="S37">
+        <v>130</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="U37">
+        <v>12</v>
+      </c>
+      <c r="V37">
+        <v>57</v>
+      </c>
+      <c r="W37">
+        <v>-45</v>
+      </c>
+      <c r="X37">
+        <v>69</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>35</v>
+      </c>
+      <c r="AA37">
+        <v>164</v>
+      </c>
+      <c r="AB37">
+        <v>-129</v>
+      </c>
+      <c r="AC37">
+        <v>199</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>32.22</v>
+      </c>
+      <c r="AF37">
+        <v>15.2</v>
+      </c>
+      <c r="AG37">
+        <v>1106</v>
+      </c>
+      <c r="AH37">
+        <v>6</v>
+      </c>
+      <c r="AI37">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B38" t="str">
+        <v>bfc8bcf3fd3c599f6693e3a1cf0856f0e59792f0</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:bfc8bcf3fd3c599f6693e3a1cf0856f0e59792f0</v>
+      </c>
+      <c r="D38" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E38" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G38" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I38" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J38" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K38" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L38" t="str">
+        <v>[PC] Cleanup CP/Action Input and Output</v>
+      </c>
+      <c r="M38" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="N38" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="O38" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>45</v>
+      </c>
+      <c r="R38">
+        <v>-41</v>
+      </c>
+      <c r="S38">
+        <v>49</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>20</v>
+      </c>
+      <c r="V38">
+        <v>63</v>
+      </c>
+      <c r="W38">
+        <v>-43</v>
+      </c>
+      <c r="X38">
+        <v>83</v>
+      </c>
+      <c r="Y38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>24</v>
+      </c>
+      <c r="AA38">
+        <v>108</v>
+      </c>
+      <c r="AB38">
+        <v>-84</v>
+      </c>
+      <c r="AC38">
+        <v>132</v>
+      </c>
+      <c r="AD38">
+        <v>8</v>
+      </c>
+      <c r="AE38">
+        <v>32.63</v>
+      </c>
+      <c r="AF38">
+        <v>16.15</v>
+      </c>
+      <c r="AG38">
+        <v>1122</v>
+      </c>
+      <c r="AH38">
+        <v>16</v>
+      </c>
+      <c r="AI38">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>[SP:07011-5]</v>
+      </c>
+      <c r="B39" t="str">
+        <v>22559e161bf0139dfc378730dad6918cd204b18c</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:22559e161bf0139dfc378730dad6918cd204b18c</v>
+      </c>
+      <c r="D39" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E39" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G39" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I39" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J39" t="str">
+        <v>lte/src/ltebb</v>
+      </c>
+      <c r="K39" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L39" t="str">
+        <v>[SP:07011-5] Update dlL1DbfUpe in cell DCI</v>
+      </c>
+      <c r="M39" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="N39" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="O39" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P39">
+        <v>39</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>37</v>
+      </c>
+      <c r="S39">
+        <v>41</v>
+      </c>
+      <c r="T39">
+        <v>7</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>40</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
+        <v>37</v>
+      </c>
+      <c r="AC39">
+        <v>43</v>
+      </c>
+      <c r="AD39">
+        <v>8</v>
+      </c>
+      <c r="AE39">
+        <v>32.64</v>
+      </c>
+      <c r="AF39">
+        <v>16.95</v>
+      </c>
+      <c r="AG39">
+        <v>1129</v>
+      </c>
+      <c r="AH39">
+        <v>7</v>
+      </c>
+      <c r="AI39">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B40" t="str">
+        <v>99d05a4e6c86182e834678b535cb587fa310870b</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:99d05a4e6c86182e834678b535cb587fa310870b</v>
+      </c>
+      <c r="D40" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E40" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G40" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I40" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J40" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K40" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L40" t="str">
+        <v>[PC] Cleanup RPC Cell Action</v>
+      </c>
+      <c r="M40" t="str">
+        <v>2022-05-02</v>
+      </c>
+      <c r="N40" t="str">
+        <v>2022-05-02</v>
+      </c>
+      <c r="O40" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+      <c r="Q40">
+        <v>29</v>
+      </c>
+      <c r="R40">
+        <v>-22</v>
+      </c>
+      <c r="S40">
+        <v>36</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>11</v>
+      </c>
+      <c r="W40">
+        <v>-6</v>
+      </c>
+      <c r="X40">
+        <v>16</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>12</v>
+      </c>
+      <c r="AA40">
+        <v>40</v>
+      </c>
+      <c r="AB40">
+        <v>-28</v>
+      </c>
+      <c r="AC40">
+        <v>52</v>
+      </c>
+      <c r="AD40">
+        <v>5</v>
+      </c>
+      <c r="AE40">
+        <v>32.72</v>
+      </c>
+      <c r="AF40">
+        <v>17.65</v>
+      </c>
+      <c r="AG40">
+        <v>1132</v>
+      </c>
+      <c r="AH40">
+        <v>3</v>
+      </c>
+      <c r="AI40">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>[SP:10320-1]</v>
+      </c>
+      <c r="B41" t="str">
+        <v>7eb735fd245c00879d20c67076b96597475eb16b</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:7eb735fd245c00879d20c67076b96597475eb16b</v>
+      </c>
+      <c r="D41" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E41" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G41" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I41" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J41" t="str">
+        <v>5g/int/vnr-rcssim</v>
+      </c>
+      <c r="K41" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="L41" t="str">
+        <v>[SP:10320-1] Update and add new schematron rules</v>
+      </c>
+      <c r="M41" t="str">
+        <v>2022-06-29</v>
+      </c>
+      <c r="N41" t="str">
+        <v>2022-06-29</v>
+      </c>
+      <c r="O41" t="str">
+        <v>test</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>277</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>277</v>
+      </c>
+      <c r="X41">
+        <v>277</v>
+      </c>
+      <c r="Y41">
+        <v>18</v>
+      </c>
+      <c r="Z41">
+        <v>277</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>277</v>
+      </c>
+      <c r="AC41">
+        <v>277</v>
+      </c>
+      <c r="AD41">
+        <v>18</v>
+      </c>
+      <c r="AE41">
+        <v>34.07</v>
+      </c>
+      <c r="AF41">
+        <v>17.65</v>
+      </c>
+      <c r="AG41">
+        <v>1190</v>
+      </c>
+      <c r="AH41">
+        <v>58</v>
+      </c>
+      <c r="AI41">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>[SP:10320-1]</v>
+      </c>
+      <c r="B42" t="str">
+        <v>4c7d355edccb44bef707f6948a7d09f328ad2fc7</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:4c7d355edccb44bef707f6948a7d09f328ad2fc7</v>
+      </c>
+      <c r="D42" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E42" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G42" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I42" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J42" t="str">
+        <v>5g/int/vnr-rcssim</v>
+      </c>
+      <c r="K42" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="L42" t="str">
+        <v>[SP:10320-1] Fix for schematron rules</v>
+      </c>
+      <c r="M42" t="str">
+        <v>2022-07-11</v>
+      </c>
+      <c r="N42" t="str">
+        <v>2022-07-11</v>
+      </c>
+      <c r="O42" t="str">
+        <v>test</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>34.07</v>
+      </c>
+      <c r="AF42">
+        <v>17.65</v>
+      </c>
+      <c r="AG42">
+        <v>1202</v>
+      </c>
+      <c r="AH42">
+        <v>12</v>
+      </c>
+      <c r="AI42">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>[SP:10320-1]</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8ae116398c492bac459c88c276baf06eb8c22596</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:8ae116398c492bac459c88c276baf06eb8c22596</v>
+      </c>
+      <c r="D43" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E43" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G43" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I43" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J43" t="str">
+        <v>5g/int/vnr-rcssim</v>
+      </c>
+      <c r="K43" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="L43" t="str">
+        <v>[SP:10320-1] Schematron test description change</v>
+      </c>
+      <c r="M43" t="str">
+        <v>2022-07-13</v>
+      </c>
+      <c r="N43" t="str">
+        <v>2022-07-13</v>
+      </c>
+      <c r="O43" t="str">
+        <v>test</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>4</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>2</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>4</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>34.09</v>
+      </c>
+      <c r="AF43">
+        <v>17.65</v>
+      </c>
+      <c r="AG43">
+        <v>1204</v>
+      </c>
+      <c r="AH43">
+        <v>2</v>
+      </c>
+      <c r="AI43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>[SP:07011-5]</v>
+      </c>
+      <c r="B44" t="str">
+        <v>3ad96803d0980df346d69bfb517c576873b69d1c</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:3ad96803d0980df346d69bfb517c576873b69d1c</v>
+      </c>
+      <c r="D44" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E44" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G44" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I44" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J44" t="str">
+        <v>5g/src/nrbbphy</v>
+      </c>
+      <c r="K44" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L44" t="str">
+        <v>[SP:07011-5] Add 2DS capacity testcases FDD AAS</v>
+      </c>
+      <c r="M44" t="str">
+        <v>2022-07-19</v>
+      </c>
+      <c r="N44" t="str">
+        <v>2022-07-19</v>
+      </c>
+      <c r="O44" t="str">
+        <v>test</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>445</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>445</v>
+      </c>
+      <c r="X44">
+        <v>445</v>
+      </c>
+      <c r="Y44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>445</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>445</v>
+      </c>
+      <c r="AC44">
+        <v>445</v>
+      </c>
+      <c r="AD44">
+        <v>3</v>
+      </c>
+      <c r="AE44">
+        <v>36.26</v>
+      </c>
+      <c r="AF44">
+        <v>17.65</v>
+      </c>
+      <c r="AG44">
+        <v>1210</v>
+      </c>
+      <c r="AH44">
+        <v>6</v>
+      </c>
+      <c r="AI44">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>[SP:10320-1]</v>
+      </c>
+      <c r="B45" t="str">
+        <v>c89204f0bc829aa9f2f9338b91bf1ee1e543bca3</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:c89204f0bc829aa9f2f9338b91bf1ee1e543bca3</v>
+      </c>
+      <c r="D45" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E45" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G45" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I45" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J45" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K45" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L45" t="str">
+        <v>[SP:10320-1] Update SrWeightConfigParams</v>
+      </c>
+      <c r="M45" t="str">
+        <v>2022-08-01</v>
+      </c>
+      <c r="N45" t="str">
+        <v>2022-08-02</v>
+      </c>
+      <c r="O45" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P45">
+        <v>38</v>
+      </c>
+      <c r="Q45">
+        <v>41</v>
+      </c>
+      <c r="R45">
+        <v>-3</v>
+      </c>
+      <c r="S45">
+        <v>79</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>54</v>
+      </c>
+      <c r="V45">
+        <v>18</v>
+      </c>
+      <c r="W45">
+        <v>36</v>
+      </c>
+      <c r="X45">
+        <v>72</v>
+      </c>
+      <c r="Y45">
+        <v>3</v>
+      </c>
+      <c r="Z45">
+        <v>92</v>
+      </c>
+      <c r="AA45">
+        <v>59</v>
+      </c>
+      <c r="AB45">
+        <v>33</v>
+      </c>
+      <c r="AC45">
+        <v>151</v>
+      </c>
+      <c r="AD45">
+        <v>6</v>
+      </c>
+      <c r="AE45">
+        <v>36.61</v>
+      </c>
+      <c r="AF45">
+        <v>19.18</v>
+      </c>
+      <c r="AG45">
+        <v>1224</v>
+      </c>
+      <c r="AH45">
+        <v>14</v>
+      </c>
+      <c r="AI45">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>[SP:07011-5]</v>
+      </c>
+      <c r="B46" t="str">
+        <v>87575cbef4a332828e509c475c51f96445ae47f2</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:87575cbef4a332828e509c475c51f96445ae47f2</v>
+      </c>
+      <c r="D46" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E46" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G46" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I46" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J46" t="str">
+        <v>lte/src/ltebb</v>
+      </c>
+      <c r="K46" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L46" t="str">
+        <v>[SP:07011-5] Fix for sectorCarrierType access</v>
+      </c>
+      <c r="M46" t="str">
+        <v>2022-09-08</v>
+      </c>
+      <c r="N46" t="str">
+        <v>2022-09-08</v>
+      </c>
+      <c r="O46" t="str">
+        <v>source</v>
+      </c>
+      <c r="P46">
+        <v>32</v>
+      </c>
+      <c r="Q46">
+        <v>28</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>60</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>32</v>
+      </c>
+      <c r="AA46">
+        <v>28</v>
+      </c>
+      <c r="AB46">
+        <v>4</v>
+      </c>
+      <c r="AC46">
+        <v>60</v>
+      </c>
+      <c r="AD46">
+        <v>4</v>
+      </c>
+      <c r="AE46">
+        <v>36.61</v>
+      </c>
+      <c r="AF46">
+        <v>20.34</v>
+      </c>
+      <c r="AG46">
+        <v>1261</v>
+      </c>
+      <c r="AH46">
+        <v>37</v>
+      </c>
+      <c r="AI46">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>[SP:10320-1]</v>
+      </c>
+      <c r="B47" t="str">
+        <v>14438272db7b57fc9bc773ed8458cff2ebc107bc</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:14438272db7b57fc9bc773ed8458cff2ebc107bc</v>
+      </c>
+      <c r="D47" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E47" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G47" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I47" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J47" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K47" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L47" t="str">
+        <v>[SP:10320-1] Modifying srWeightHandling SC</v>
+      </c>
+      <c r="M47" t="str">
+        <v>2022-09-12</v>
+      </c>
+      <c r="N47" t="str">
+        <v>2022-09-13</v>
+      </c>
+      <c r="O47" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P47">
+        <v>65</v>
+      </c>
+      <c r="Q47">
+        <v>130</v>
+      </c>
+      <c r="R47">
+        <v>-65</v>
+      </c>
+      <c r="S47">
+        <v>195</v>
+      </c>
+      <c r="T47">
+        <v>13</v>
+      </c>
+      <c r="U47">
+        <v>26</v>
+      </c>
+      <c r="V47">
+        <v>26</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>52</v>
+      </c>
+      <c r="Y47">
+        <v>11</v>
+      </c>
+      <c r="Z47">
+        <v>91</v>
+      </c>
+      <c r="AA47">
+        <v>156</v>
+      </c>
+      <c r="AB47">
+        <v>-65</v>
+      </c>
+      <c r="AC47">
+        <v>247</v>
+      </c>
+      <c r="AD47">
+        <v>24</v>
+      </c>
+      <c r="AE47">
+        <v>36.87</v>
+      </c>
+      <c r="AF47">
+        <v>24.12</v>
+      </c>
+      <c r="AG47">
+        <v>1266</v>
+      </c>
+      <c r="AH47">
+        <v>5</v>
+      </c>
+      <c r="AI47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>[SP:10320-1]</v>
+      </c>
+      <c r="B48" t="str">
+        <v>e20c027c204615fe0138a466b3c1db7e7d46397f</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://gerrit-archive.sero.gic.ericsson.se/q/commit:e20c027c204615fe0138a466b3c1db7e7d46397f</v>
+      </c>
+      <c r="D48" t="str">
+        <v>gerrit-archive</v>
+      </c>
+      <c r="E48" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G48" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I48" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J48" t="str">
+        <v>5g/int/vnr-rcssim</v>
+      </c>
+      <c r="K48" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="L48" t="str">
+        <v>[SP:10320-1] UeCCSrHandling Change</v>
+      </c>
+      <c r="M48" t="str">
+        <v>2022-09-14</v>
+      </c>
+      <c r="N48" t="str">
+        <v>2022-09-14</v>
+      </c>
+      <c r="O48" t="str">
+        <v>test</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>17</v>
+      </c>
+      <c r="V48">
+        <v>12</v>
+      </c>
+      <c r="W48">
+        <v>5</v>
+      </c>
+      <c r="X48">
+        <v>29</v>
+      </c>
+      <c r="Y48">
+        <v>9</v>
+      </c>
+      <c r="Z48">
+        <v>17</v>
+      </c>
+      <c r="AA48">
+        <v>12</v>
+      </c>
+      <c r="AB48">
+        <v>5</v>
+      </c>
+      <c r="AC48">
+        <v>29</v>
+      </c>
+      <c r="AD48">
+        <v>9</v>
+      </c>
+      <c r="AE48">
+        <v>37.01</v>
+      </c>
+      <c r="AF48">
+        <v>24.12</v>
+      </c>
+      <c r="AG48">
+        <v>1267</v>
+      </c>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B49" t="str">
+        <v>a611fd99a709bcbbcd26571ca873a9b8c715cbc6</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:a611fd99a709bcbbcd26571ca873a9b8c715cbc6</v>
+      </c>
+      <c r="D49" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E49" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G49" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I49" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J49" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K49" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L49" t="str">
+        <v>[PC] Any&lt;T&gt; to std::optional&lt;T&gt; for PucchConfig</v>
+      </c>
+      <c r="M49" t="str">
         <v>2023-01-10</v>
       </c>
-      <c r="AL25" t="str">
+      <c r="N49" t="str">
+        <v>2023-01-10</v>
+      </c>
+      <c r="O49" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P49">
+        <v>46</v>
+      </c>
+      <c r="Q49">
+        <v>44</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>90</v>
+      </c>
+      <c r="T49">
+        <v>8</v>
+      </c>
+      <c r="U49">
+        <v>23</v>
+      </c>
+      <c r="V49">
+        <v>24</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>47</v>
+      </c>
+      <c r="Y49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>69</v>
+      </c>
+      <c r="AA49">
+        <v>68</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>137</v>
+      </c>
+      <c r="AD49">
+        <v>16</v>
+      </c>
+      <c r="AE49">
+        <v>37.24</v>
+      </c>
+      <c r="AF49">
+        <v>25.87</v>
+      </c>
+      <c r="AG49">
+        <v>1385</v>
+      </c>
+      <c r="AH49">
+        <v>118</v>
+      </c>
+      <c r="AI49">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B50" t="str">
+        <v>e01c4bfff82d2b254a864f32845e65a8b1529cf0</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:e01c4bfff82d2b254a864f32845e65a8b1529cf0</v>
+      </c>
+      <c r="D50" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E50" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G50" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I50" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J50" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K50" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L50" t="str">
+        <v>[PC] Any&lt;T&gt; to sdt::optional&lt;T&gt; in rrc</v>
+      </c>
+      <c r="M50" t="str">
+        <v>2023-01-23</v>
+      </c>
+      <c r="N50" t="str">
+        <v>2023-01-24</v>
+      </c>
+      <c r="O50" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P50">
+        <v>97</v>
+      </c>
+      <c r="Q50">
+        <v>103</v>
+      </c>
+      <c r="R50">
+        <v>-6</v>
+      </c>
+      <c r="S50">
+        <v>200</v>
+      </c>
+      <c r="T50">
+        <v>16</v>
+      </c>
+      <c r="U50">
+        <v>34</v>
+      </c>
+      <c r="V50">
+        <v>33</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>67</v>
+      </c>
+      <c r="Y50">
+        <v>13</v>
+      </c>
+      <c r="Z50">
+        <v>131</v>
+      </c>
+      <c r="AA50">
+        <v>136</v>
+      </c>
+      <c r="AB50">
+        <v>-5</v>
+      </c>
+      <c r="AC50">
+        <v>267</v>
+      </c>
+      <c r="AD50">
+        <v>29</v>
+      </c>
+      <c r="AE50">
+        <v>37.56</v>
+      </c>
+      <c r="AF50">
+        <v>29.75</v>
+      </c>
+      <c r="AG50">
+        <v>1399</v>
+      </c>
+      <c r="AH50">
+        <v>14</v>
+      </c>
+      <c r="AI50">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B51" t="str">
+        <v>cf74d456e04e50934dad680b361e9fba0e2d9d93</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:cf74d456e04e50934dad680b361e9fba0e2d9d93</v>
+      </c>
+      <c r="D51" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E51" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G51" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I51" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J51" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K51" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L51" t="str">
+        <v>[PC] Replace Any with std::optional</v>
+      </c>
+      <c r="M51" t="str">
+        <v>2023-03-16</v>
+      </c>
+      <c r="N51" t="str">
+        <v>2023-03-16</v>
+      </c>
+      <c r="O51" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P51">
+        <v>57</v>
+      </c>
+      <c r="Q51">
+        <v>69</v>
+      </c>
+      <c r="R51">
+        <v>-12</v>
+      </c>
+      <c r="S51">
+        <v>126</v>
+      </c>
+      <c r="T51">
+        <v>19</v>
+      </c>
+      <c r="U51">
+        <v>147</v>
+      </c>
+      <c r="V51">
+        <v>149</v>
+      </c>
+      <c r="W51">
+        <v>-2</v>
+      </c>
+      <c r="X51">
+        <v>296</v>
+      </c>
+      <c r="Y51">
+        <v>29</v>
+      </c>
+      <c r="Z51">
+        <v>204</v>
+      </c>
+      <c r="AA51">
+        <v>218</v>
+      </c>
+      <c r="AB51">
+        <v>-14</v>
+      </c>
+      <c r="AC51">
+        <v>422</v>
+      </c>
+      <c r="AD51">
+        <v>48</v>
+      </c>
+      <c r="AE51">
+        <v>39.01</v>
+      </c>
+      <c r="AF51">
+        <v>32.19</v>
+      </c>
+      <c r="AG51">
+        <v>1450</v>
+      </c>
+      <c r="AH51">
+        <v>51</v>
+      </c>
+      <c r="AI51">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>[SP:10181-2]</v>
+      </c>
+      <c r="B52" t="str">
+        <v>1e7ea84e21b4910b1d1bbe3c173f19af475fe0b6</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:1e7ea84e21b4910b1d1bbe3c173f19af475fe0b6</v>
+      </c>
+      <c r="D52" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E52" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G52" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I52" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J52" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K52" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L52" t="str">
+        <v>[SP:10181-2] Removal of rpcControl SC</v>
+      </c>
+      <c r="M52" t="str">
+        <v>2023-04-20</v>
+      </c>
+      <c r="N52" t="str">
+        <v>2023-04-20</v>
+      </c>
+      <c r="O52" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>14</v>
+      </c>
+      <c r="R52">
+        <v>-14</v>
+      </c>
+      <c r="S52">
+        <v>14</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>24</v>
+      </c>
+      <c r="V52">
+        <v>64</v>
+      </c>
+      <c r="W52">
+        <v>-40</v>
+      </c>
+      <c r="X52">
+        <v>88</v>
+      </c>
+      <c r="Y52">
+        <v>5</v>
+      </c>
+      <c r="Z52">
+        <v>24</v>
+      </c>
+      <c r="AA52">
+        <v>78</v>
+      </c>
+      <c r="AB52">
+        <v>-54</v>
+      </c>
+      <c r="AC52">
+        <v>102</v>
+      </c>
+      <c r="AD52">
+        <v>8</v>
+      </c>
+      <c r="AE52">
+        <v>39.44</v>
+      </c>
+      <c r="AF52">
+        <v>32.46</v>
+      </c>
+      <c r="AG52">
+        <v>1485</v>
+      </c>
+      <c r="AH52">
+        <v>35</v>
+      </c>
+      <c r="AI52">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>[SP:10181-2]</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0f919abe5307e91e1c4bba0cd7c5bb41a8c4c788</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:0f919abe5307e91e1c4bba0cd7c5bb41a8c4c788</v>
+      </c>
+      <c r="D53" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E53" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G53" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I53" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J53" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K53" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L53" t="str">
+        <v>[SP:10181-2] Remove sc for T+T+F+F CA combo</v>
+      </c>
+      <c r="M53" t="str">
+        <v>2023-05-02</v>
+      </c>
+      <c r="N53" t="str">
+        <v>2023-05-02</v>
+      </c>
+      <c r="O53" t="str">
+        <v>source</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>102</v>
+      </c>
+      <c r="R53">
+        <v>-101</v>
+      </c>
+      <c r="S53">
+        <v>103</v>
+      </c>
+      <c r="T53">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>102</v>
+      </c>
+      <c r="AB53">
+        <v>-101</v>
+      </c>
+      <c r="AC53">
+        <v>103</v>
+      </c>
+      <c r="AD53">
+        <v>4</v>
+      </c>
+      <c r="AE53">
+        <v>39.44</v>
+      </c>
+      <c r="AF53">
+        <v>34.46</v>
+      </c>
+      <c r="AG53">
+        <v>1497</v>
+      </c>
+      <c r="AH53">
+        <v>12</v>
+      </c>
+      <c r="AI53">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>[SP:11022-SP6]</v>
+      </c>
+      <c r="B54" t="str">
+        <v>d87e06a41090d2ddac3fd3e0b438f4d00c034ef2</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:d87e06a41090d2ddac3fd3e0b438f4d00c034ef2</v>
+      </c>
+      <c r="D54" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E54" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G54" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I54" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J54" t="str">
+        <v>5g/src/ucl</v>
+      </c>
+      <c r="K54" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="L54" t="str">
+        <v>[SP:11022-SP6] Add DMRS Type support</v>
+      </c>
+      <c r="M54" t="str">
+        <v>2023-07-05</v>
+      </c>
+      <c r="N54" t="str">
+        <v>2023-07-05</v>
+      </c>
+      <c r="O54" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P54">
+        <v>144</v>
+      </c>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54">
+        <v>138</v>
+      </c>
+      <c r="S54">
+        <v>150</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>167</v>
+      </c>
+      <c r="V54">
+        <v>29</v>
+      </c>
+      <c r="W54">
+        <v>138</v>
+      </c>
+      <c r="X54">
+        <v>196</v>
+      </c>
+      <c r="Y54">
+        <v>19</v>
+      </c>
+      <c r="Z54">
+        <v>311</v>
+      </c>
+      <c r="AA54">
+        <v>35</v>
+      </c>
+      <c r="AB54">
+        <v>276</v>
+      </c>
+      <c r="AC54">
+        <v>346</v>
+      </c>
+      <c r="AD54">
+        <v>24</v>
+      </c>
+      <c r="AE54">
+        <v>40.39</v>
+      </c>
+      <c r="AF54">
+        <v>37.37</v>
+      </c>
+      <c r="AG54">
+        <v>1561</v>
+      </c>
+      <c r="AH54">
+        <v>64</v>
+      </c>
+      <c r="AI54">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B55" t="str">
+        <v>9af025d3420cafc02b2da822cece7b72f5f17f11</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:9af025d3420cafc02b2da822cece7b72f5f17f11</v>
+      </c>
+      <c r="D55" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E55" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G55" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I55" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J55" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K55" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L55" t="str">
+        <v>[PC] Replace Any with optional</v>
+      </c>
+      <c r="M55" t="str">
+        <v>2023-07-26</v>
+      </c>
+      <c r="N55" t="str">
+        <v>2023-07-26</v>
+      </c>
+      <c r="O55" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P55">
+        <v>259</v>
+      </c>
+      <c r="Q55">
+        <v>269</v>
+      </c>
+      <c r="R55">
+        <v>-10</v>
+      </c>
+      <c r="S55">
+        <v>528</v>
+      </c>
+      <c r="T55">
+        <v>59</v>
+      </c>
+      <c r="U55">
+        <v>315</v>
+      </c>
+      <c r="V55">
+        <v>286</v>
+      </c>
+      <c r="W55">
+        <v>29</v>
+      </c>
+      <c r="X55">
+        <v>601</v>
+      </c>
+      <c r="Y55">
+        <v>63</v>
+      </c>
+      <c r="Z55">
+        <v>574</v>
+      </c>
+      <c r="AA55">
+        <v>555</v>
+      </c>
+      <c r="AB55">
+        <v>19</v>
+      </c>
+      <c r="AC55">
+        <v>1129</v>
+      </c>
+      <c r="AD55">
+        <v>122</v>
+      </c>
+      <c r="AE55">
+        <v>43.32</v>
+      </c>
+      <c r="AF55">
+        <v>47.61</v>
+      </c>
+      <c r="AG55">
+        <v>1582</v>
+      </c>
+      <c r="AH55">
+        <v>21</v>
+      </c>
+      <c r="AI55">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B56" t="str">
+        <v>2407ae9e66644c114ea2cc19bb0af37b44cb2e59</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:2407ae9e66644c114ea2cc19bb0af37b44cb2e59</v>
+      </c>
+      <c r="D56" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E56" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G56" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I56" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J56" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K56" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L56" t="str">
+        <v>[PC] Replace Any with optional</v>
+      </c>
+      <c r="M56" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="N56" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="O56" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P56">
+        <v>99</v>
+      </c>
+      <c r="Q56">
+        <v>113</v>
+      </c>
+      <c r="R56">
+        <v>-14</v>
+      </c>
+      <c r="S56">
+        <v>212</v>
+      </c>
+      <c r="T56">
+        <v>35</v>
+      </c>
+      <c r="U56">
+        <v>189</v>
+      </c>
+      <c r="V56">
+        <v>161</v>
+      </c>
+      <c r="W56">
+        <v>28</v>
+      </c>
+      <c r="X56">
+        <v>350</v>
+      </c>
+      <c r="Y56">
+        <v>27</v>
+      </c>
+      <c r="Z56">
+        <v>288</v>
+      </c>
+      <c r="AA56">
+        <v>274</v>
+      </c>
+      <c r="AB56">
+        <v>14</v>
+      </c>
+      <c r="AC56">
+        <v>562</v>
+      </c>
+      <c r="AD56">
+        <v>62</v>
+      </c>
+      <c r="AE56">
+        <v>45.03</v>
+      </c>
+      <c r="AF56">
+        <v>51.72</v>
+      </c>
+      <c r="AG56">
+        <v>1589</v>
+      </c>
+      <c r="AH56">
+        <v>7</v>
+      </c>
+      <c r="AI56">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B57" t="str">
+        <v>71debfe1cb672a2d39ce7cc71fc0728d2838937e</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:71debfe1cb672a2d39ce7cc71fc0728d2838937e</v>
+      </c>
+      <c r="D57" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E57" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G57" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I57" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J57" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K57" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L57" t="str">
+        <v>[PC] Replace Any with optional</v>
+      </c>
+      <c r="M57" t="str">
+        <v>2023-08-14</v>
+      </c>
+      <c r="N57" t="str">
+        <v>2023-08-14</v>
+      </c>
+      <c r="O57" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P57">
+        <v>162</v>
+      </c>
+      <c r="Q57">
+        <v>175</v>
+      </c>
+      <c r="R57">
+        <v>-13</v>
+      </c>
+      <c r="S57">
+        <v>337</v>
+      </c>
+      <c r="T57">
+        <v>24</v>
+      </c>
+      <c r="U57">
+        <v>2079</v>
+      </c>
+      <c r="V57">
+        <v>2029</v>
+      </c>
+      <c r="W57">
+        <v>50</v>
+      </c>
+      <c r="X57">
+        <v>4108</v>
+      </c>
+      <c r="Y57">
+        <v>38</v>
+      </c>
+      <c r="Z57">
+        <v>2241</v>
+      </c>
+      <c r="AA57">
+        <v>2204</v>
+      </c>
+      <c r="AB57">
+        <v>37</v>
+      </c>
+      <c r="AC57">
+        <v>4445</v>
+      </c>
+      <c r="AD57">
+        <v>62</v>
+      </c>
+      <c r="AE57">
+        <v>65.06</v>
+      </c>
+      <c r="AF57">
+        <v>58.25</v>
+      </c>
+      <c r="AG57">
+        <v>1601</v>
+      </c>
+      <c r="AH57">
+        <v>12</v>
+      </c>
+      <c r="AI57">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B58" t="str">
+        <v>4e01b5ad0e30d414c4008c9e552ec96238cc9619</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:4e01b5ad0e30d414c4008c9e552ec96238cc9619</v>
+      </c>
+      <c r="D58" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E58" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G58" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I58" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J58" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K58" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L58" t="str">
+        <v>[PC] Replace Any with optional</v>
+      </c>
+      <c r="M58" t="str">
+        <v>2023-08-16</v>
+      </c>
+      <c r="N58" t="str">
+        <v>2023-08-16</v>
+      </c>
+      <c r="O58" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P58">
+        <v>108</v>
+      </c>
+      <c r="Q58">
+        <v>111</v>
+      </c>
+      <c r="R58">
+        <v>-3</v>
+      </c>
+      <c r="S58">
+        <v>219</v>
+      </c>
+      <c r="T58">
+        <v>12</v>
+      </c>
+      <c r="U58">
+        <v>1687</v>
+      </c>
+      <c r="V58">
+        <v>1675</v>
+      </c>
+      <c r="W58">
+        <v>12</v>
+      </c>
+      <c r="X58">
+        <v>3362</v>
+      </c>
+      <c r="Y58">
+        <v>24</v>
+      </c>
+      <c r="Z58">
+        <v>1795</v>
+      </c>
+      <c r="AA58">
+        <v>1786</v>
+      </c>
+      <c r="AB58">
+        <v>9</v>
+      </c>
+      <c r="AC58">
+        <v>3581</v>
+      </c>
+      <c r="AD58">
+        <v>36</v>
+      </c>
+      <c r="AE58">
+        <v>81.45</v>
+      </c>
+      <c r="AF58">
+        <v>62.5</v>
+      </c>
+      <c r="AG58">
+        <v>1603</v>
+      </c>
+      <c r="AH58">
+        <v>2</v>
+      </c>
+      <c r="AI58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B59" t="str">
+        <v>723a1ed4e159ea4edeb2ad3d4d1ffd9645c18328</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:723a1ed4e159ea4edeb2ad3d4d1ffd9645c18328</v>
+      </c>
+      <c r="D59" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E59" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G59" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I59" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J59" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K59" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L59" t="str">
+        <v>[PC] Replace Any with optional</v>
+      </c>
+      <c r="M59" t="str">
+        <v>2023-08-22</v>
+      </c>
+      <c r="N59" t="str">
+        <v>2023-08-22</v>
+      </c>
+      <c r="O59" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P59">
+        <v>175</v>
+      </c>
+      <c r="Q59">
+        <v>178</v>
+      </c>
+      <c r="R59">
+        <v>-3</v>
+      </c>
+      <c r="S59">
+        <v>353</v>
+      </c>
+      <c r="T59">
+        <v>24</v>
+      </c>
+      <c r="U59">
+        <v>348</v>
+      </c>
+      <c r="V59">
+        <v>411</v>
+      </c>
+      <c r="W59">
+        <v>-63</v>
+      </c>
+      <c r="X59">
+        <v>759</v>
+      </c>
+      <c r="Y59">
+        <v>30</v>
+      </c>
+      <c r="Z59">
+        <v>523</v>
+      </c>
+      <c r="AA59">
+        <v>589</v>
+      </c>
+      <c r="AB59">
+        <v>-66</v>
+      </c>
+      <c r="AC59">
+        <v>1112</v>
+      </c>
+      <c r="AD59">
+        <v>54</v>
+      </c>
+      <c r="AE59">
+        <v>85.15</v>
+      </c>
+      <c r="AF59">
+        <v>69.34</v>
+      </c>
+      <c r="AG59">
+        <v>1609</v>
+      </c>
+      <c r="AH59">
+        <v>6</v>
+      </c>
+      <c r="AI59">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B60" t="str">
+        <v>b5ce5fcf7153a09a979e84554ca4bc6b2c790d72</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:b5ce5fcf7153a09a979e84554ca4bc6b2c790d72</v>
+      </c>
+      <c r="D60" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E60" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G60" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I60" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J60" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K60" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L60" t="str">
+        <v>[PC] Replace Any with optional</v>
+      </c>
+      <c r="M60" t="str">
+        <v>2023-09-07</v>
+      </c>
+      <c r="N60" t="str">
+        <v>2023-09-07</v>
+      </c>
+      <c r="O60" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P60">
+        <v>216</v>
+      </c>
+      <c r="Q60">
+        <v>216</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>432</v>
+      </c>
+      <c r="T60">
+        <v>18</v>
+      </c>
+      <c r="U60">
+        <v>708</v>
+      </c>
+      <c r="V60">
+        <v>704</v>
+      </c>
+      <c r="W60">
+        <v>4</v>
+      </c>
+      <c r="X60">
+        <v>1412</v>
+      </c>
+      <c r="Y60">
+        <v>24</v>
+      </c>
+      <c r="Z60">
+        <v>924</v>
+      </c>
+      <c r="AA60">
+        <v>920</v>
+      </c>
+      <c r="AB60">
+        <v>4</v>
+      </c>
+      <c r="AC60">
+        <v>1844</v>
+      </c>
+      <c r="AD60">
+        <v>42</v>
+      </c>
+      <c r="AE60">
+        <v>92.04</v>
+      </c>
+      <c r="AF60">
+        <v>77.72</v>
+      </c>
+      <c r="AG60">
+        <v>1625</v>
+      </c>
+      <c r="AH60">
+        <v>16</v>
+      </c>
+      <c r="AI60">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B61" t="str">
+        <v>deb4bca6e57c095e2f3886b61be6b901c5bba929</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:deb4bca6e57c095e2f3886b61be6b901c5bba929</v>
+      </c>
+      <c r="D61" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E61" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G61" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I61" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J61" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K61" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L61" t="str">
+        <v>[PC] Replace Any with optional</v>
+      </c>
+      <c r="M61" t="str">
+        <v>2023-09-14</v>
+      </c>
+      <c r="N61" t="str">
+        <v>2023-09-14</v>
+      </c>
+      <c r="O61" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P61">
+        <v>148</v>
+      </c>
+      <c r="Q61">
+        <v>146</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>294</v>
+      </c>
+      <c r="T61">
+        <v>40</v>
+      </c>
+      <c r="U61">
+        <v>239</v>
+      </c>
+      <c r="V61">
+        <v>234</v>
+      </c>
+      <c r="W61">
+        <v>5</v>
+      </c>
+      <c r="X61">
+        <v>473</v>
+      </c>
+      <c r="Y61">
+        <v>40</v>
+      </c>
+      <c r="Z61">
+        <v>387</v>
+      </c>
+      <c r="AA61">
+        <v>380</v>
+      </c>
+      <c r="AB61">
+        <v>7</v>
+      </c>
+      <c r="AC61">
+        <v>767</v>
+      </c>
+      <c r="AD61">
+        <v>80</v>
+      </c>
+      <c r="AE61">
+        <v>94.34</v>
+      </c>
+      <c r="AF61">
+        <v>83.42</v>
+      </c>
+      <c r="AG61">
+        <v>1632</v>
+      </c>
+      <c r="AH61">
+        <v>7</v>
+      </c>
+      <c r="AI61">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>[SP:11022-SP12]</v>
+      </c>
+      <c r="B62" t="str">
+        <v>cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+      </c>
+      <c r="D62" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E62" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G62" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I62" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J62" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K62" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L62" t="str">
+        <v>[SP:11022-SP12] Update cellInfoId Interface</v>
+      </c>
+      <c r="M62" t="str">
+        <v>2023-11-18</v>
+      </c>
+      <c r="N62" t="str">
+        <v>2023-11-18</v>
+      </c>
+      <c r="O62" t="str">
+        <v>source</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="S62">
+        <v>4</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>4</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>4</v>
+      </c>
+      <c r="AC62">
+        <v>4</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>94.34</v>
+      </c>
+      <c r="AF62">
+        <v>83.5</v>
+      </c>
+      <c r="AG62">
+        <v>1697</v>
+      </c>
+      <c r="AH62">
+        <v>65</v>
+      </c>
+      <c r="AI62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>[TCUEPC-437]</v>
+      </c>
+      <c r="B63" t="str">
+        <v>931e9c2c5e68a63517819276d7eb96bd5f641120</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:931e9c2c5e68a63517819276d7eb96bd5f641120</v>
+      </c>
+      <c r="D63" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E63" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G63" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I63" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J63" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K63" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L63" t="str">
+        <v>[TCUEPC-437] coverage for rsrp_util</v>
+      </c>
+      <c r="M63" t="str">
+        <v>2023-11-27</v>
+      </c>
+      <c r="N63" t="str">
+        <v>2023-11-27</v>
+      </c>
+      <c r="O63" t="str">
+        <v>test</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>5</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>4</v>
+      </c>
+      <c r="X63">
+        <v>6</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>5</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <v>4</v>
+      </c>
+      <c r="AC63">
+        <v>6</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>94.37</v>
+      </c>
+      <c r="AF63">
+        <v>83.5</v>
+      </c>
+      <c r="AG63">
+        <v>1706</v>
+      </c>
+      <c r="AH63">
+        <v>9</v>
+      </c>
+      <c r="AI63">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>[TCUEPC-437]</v>
+      </c>
+      <c r="B64" t="str">
+        <v>9ce191a79a775c8852fcfe48cca23d80e818fe19</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:9ce191a79a775c8852fcfe48cca23d80e818fe19</v>
+      </c>
+      <c r="D64" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E64" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G64" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I64" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J64" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K64" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L64" t="str">
+        <v>[TCUEPC-437] Coverage for additional_service_info</v>
+      </c>
+      <c r="M64" t="str">
+        <v>2023-12-05</v>
+      </c>
+      <c r="N64" t="str">
+        <v>2023-12-05</v>
+      </c>
+      <c r="O64" t="str">
+        <v>test</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>48</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>48</v>
+      </c>
+      <c r="X64">
+        <v>48</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>48</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>48</v>
+      </c>
+      <c r="AC64">
+        <v>48</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>94.61</v>
+      </c>
+      <c r="AF64">
+        <v>83.5</v>
+      </c>
+      <c r="AG64">
+        <v>1714</v>
+      </c>
+      <c r="AH64">
+        <v>8</v>
+      </c>
+      <c r="AI64">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>[SP:11022-SP12]</v>
+      </c>
+      <c r="B65" t="str">
+        <v>236fd51082f64ea82e70fd52f04841af3463f820</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:236fd51082f64ea82e70fd52f04841af3463f820</v>
+      </c>
+      <c r="D65" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E65" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G65" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I65" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J65" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K65" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L65" t="str">
+        <v>[SP:11022-SP12] AggresiveUss SCs</v>
+      </c>
+      <c r="M65" t="str">
+        <v>2023-12-16</v>
+      </c>
+      <c r="N65" t="str">
+        <v>2023-12-16</v>
+      </c>
+      <c r="O65" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P65">
+        <v>184</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>181</v>
+      </c>
+      <c r="S65">
+        <v>187</v>
+      </c>
+      <c r="T65">
+        <v>7</v>
+      </c>
+      <c r="U65">
+        <v>8</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>8</v>
+      </c>
+      <c r="X65">
+        <v>8</v>
+      </c>
+      <c r="Y65">
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <v>192</v>
+      </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
+      <c r="AB65">
+        <v>189</v>
+      </c>
+      <c r="AC65">
+        <v>195</v>
+      </c>
+      <c r="AD65">
+        <v>9</v>
+      </c>
+      <c r="AE65">
+        <v>94.65</v>
+      </c>
+      <c r="AF65">
+        <v>87.12</v>
+      </c>
+      <c r="AG65">
+        <v>1725</v>
+      </c>
+      <c r="AH65">
+        <v>11</v>
+      </c>
+      <c r="AI65">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>[SP:11022-SP12]</v>
+      </c>
+      <c r="B66" t="str">
+        <v>3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+      </c>
+      <c r="D66" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E66" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G66" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I66" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J66" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K66" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L66" t="str">
+        <v>[SP:11022-SP12] AggresiveUss SCs Fix</v>
+      </c>
+      <c r="M66" t="str">
+        <v>2023-12-20</v>
+      </c>
+      <c r="N66" t="str">
+        <v>2023-12-20</v>
+      </c>
+      <c r="O66" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>-3</v>
+      </c>
+      <c r="X66">
+        <v>3</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>4</v>
+      </c>
+      <c r="AB66">
+        <v>-3</v>
+      </c>
+      <c r="AC66">
+        <v>5</v>
+      </c>
+      <c r="AD66">
+        <v>3</v>
+      </c>
+      <c r="AE66">
+        <v>94.66</v>
+      </c>
+      <c r="AF66">
+        <v>87.16</v>
+      </c>
+      <c r="AG66">
+        <v>1729</v>
+      </c>
+      <c r="AH66">
+        <v>4</v>
+      </c>
+      <c r="AI66">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>[TCUEPC-437]</v>
+      </c>
+      <c r="B67" t="str">
+        <v>35354cef8db0d7966ec27f40f6f8908fbd609638</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:35354cef8db0d7966ec27f40f6f8908fbd609638</v>
+      </c>
+      <c r="D67" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E67" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G67" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I67" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J67" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K67" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L67" t="str">
+        <v>[TCUEPC-437] Coverage for scells_util</v>
+      </c>
+      <c r="M67" t="str">
+        <v>2024-01-08</v>
+      </c>
+      <c r="N67" t="str">
+        <v>2024-01-08</v>
+      </c>
+      <c r="O67" t="str">
+        <v>test</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>173</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>173</v>
+      </c>
+      <c r="X67">
+        <v>173</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>173</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>173</v>
+      </c>
+      <c r="AC67">
+        <v>173</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>95.5</v>
+      </c>
+      <c r="AF67">
+        <v>87.16</v>
+      </c>
+      <c r="AG67">
+        <v>1748</v>
+      </c>
+      <c r="AH67">
+        <v>19</v>
+      </c>
+      <c r="AI67">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>[SP:11023-SP2]</v>
+      </c>
+      <c r="B68" t="str">
+        <v>24916b53d08418c514f3978ea784a1ac0a9ffda7</v>
+      </c>
+      <c r="C68" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:24916b53d08418c514f3978ea784a1ac0a9ffda7</v>
+      </c>
+      <c r="D68" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E68" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G68" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I68" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J68" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K68" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L68" t="str">
+        <v>[SP:11023-SP2] SC for delayTx</v>
+      </c>
+      <c r="M68" t="str">
+        <v>2024-02-06</v>
+      </c>
+      <c r="N68" t="str">
+        <v>2024-02-06</v>
+      </c>
+      <c r="O68" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P68">
+        <v>328</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>328</v>
+      </c>
+      <c r="S68">
+        <v>328</v>
+      </c>
+      <c r="T68">
+        <v>5</v>
+      </c>
+      <c r="U68">
+        <v>24</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>24</v>
+      </c>
+      <c r="X68">
+        <v>24</v>
+      </c>
+      <c r="Y68">
+        <v>2</v>
+      </c>
+      <c r="Z68">
+        <v>352</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>352</v>
+      </c>
+      <c r="AC68">
+        <v>352</v>
+      </c>
+      <c r="AD68">
+        <v>7</v>
+      </c>
+      <c r="AE68">
+        <v>95.62</v>
+      </c>
+      <c r="AF68">
+        <v>93.52</v>
+      </c>
+      <c r="AG68">
+        <v>1777</v>
+      </c>
+      <c r="AH68">
+        <v>29</v>
+      </c>
+      <c r="AI68">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>[SP:FPTA-MR000494-SP1]</v>
+      </c>
+      <c r="B69" t="str">
+        <v>a7b71ac6c315fdd6b55e1c1676a3117c2cd00353</v>
+      </c>
+      <c r="C69" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:a7b71ac6c315fdd6b55e1c1676a3117c2cd00353</v>
+      </c>
+      <c r="D69" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E69" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G69" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I69" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J69" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K69" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L69" t="str">
+        <v>[SP:FPTA-MR000494-SP1] Removing nrCaSchedOptimForExtScellsEnable</v>
+      </c>
+      <c r="M69" t="str">
+        <v>2024-02-06</v>
+      </c>
+      <c r="N69" t="str">
+        <v>2024-02-06</v>
+      </c>
+      <c r="O69" t="str">
+        <v>source</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>180</v>
+      </c>
+      <c r="R69">
+        <v>-179</v>
+      </c>
+      <c r="S69">
+        <v>181</v>
+      </c>
+      <c r="T69">
+        <v>5</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>180</v>
+      </c>
+      <c r="AB69">
+        <v>-179</v>
+      </c>
+      <c r="AC69">
+        <v>181</v>
+      </c>
+      <c r="AD69">
+        <v>5</v>
+      </c>
+      <c r="AE69">
+        <v>95.62</v>
+      </c>
+      <c r="AF69">
+        <v>97.03</v>
+      </c>
+      <c r="AG69">
+        <v>1777</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>[SP:11023-SP2]</v>
+      </c>
+      <c r="B70" t="str">
+        <v>bc68b6a23f66c359faa95e301698d9a198c918d0</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:bc68b6a23f66c359faa95e301698d9a198c918d0</v>
+      </c>
+      <c r="D70" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E70" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G70" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I70" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J70" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K70" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L70" t="str">
+        <v>[SP:11023-SP2] Small delayTx for Response Handling</v>
+      </c>
+      <c r="M70" t="str">
+        <v>2024-03-14</v>
+      </c>
+      <c r="N70" t="str">
+        <v>2024-03-14</v>
+      </c>
+      <c r="O70" t="str">
+        <v>source test</v>
+      </c>
+      <c r="P70">
+        <v>124</v>
+      </c>
+      <c r="Q70">
+        <v>29</v>
+      </c>
+      <c r="R70">
+        <v>95</v>
+      </c>
+      <c r="S70">
+        <v>153</v>
+      </c>
+      <c r="T70">
+        <v>6</v>
+      </c>
+      <c r="U70">
+        <v>511</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>511</v>
+      </c>
+      <c r="X70">
+        <v>511</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>635</v>
+      </c>
+      <c r="AA70">
+        <v>29</v>
+      </c>
+      <c r="AB70">
+        <v>606</v>
+      </c>
+      <c r="AC70">
+        <v>664</v>
+      </c>
+      <c r="AD70">
+        <v>7</v>
+      </c>
+      <c r="AE70">
+        <v>98.11</v>
+      </c>
+      <c r="AF70">
+        <v>100</v>
+      </c>
+      <c r="AG70">
+        <v>1814</v>
+      </c>
+      <c r="AH70">
+        <v>37</v>
+      </c>
+      <c r="AI70">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>[PC]</v>
+      </c>
+      <c r="B71" t="str">
+        <v>55e9065adf904372329f87ba3e2b25929529a8a1</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:55e9065adf904372329f87ba3e2b25929529a8a1</v>
+      </c>
+      <c r="D71" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E71" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G71" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="I71" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="J71" t="str">
+        <v>5g/src/rpcppg2</v>
+      </c>
+      <c r="K71" t="str">
+        <v>MSRBS</v>
+      </c>
+      <c r="L71" t="str">
+        <v>[PC] MCT test for SrHandling</v>
+      </c>
+      <c r="M71" t="str">
         <v>2024-05-27</v>
       </c>
-      <c r="AM25">
-        <v>3913</v>
-      </c>
-      <c r="AN25">
-        <v>12919</v>
-      </c>
-      <c r="AO25">
-        <v>16832</v>
-      </c>
-      <c r="AP25">
-        <v>20.96</v>
-      </c>
-      <c r="AQ25">
-        <v>163.04</v>
-      </c>
-      <c r="AR25">
-        <v>538.29</v>
+      <c r="N71" t="str">
+        <v>2024-05-27</v>
+      </c>
+      <c r="O71" t="str">
+        <v>test</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>386</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>385</v>
+      </c>
+      <c r="X71">
+        <v>387</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>386</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>385</v>
+      </c>
+      <c r="AC71">
+        <v>387</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>100</v>
+      </c>
+      <c r="AF71">
+        <v>100</v>
+      </c>
+      <c r="AG71">
+        <v>1888</v>
+      </c>
+      <c r="AH71">
+        <v>74</v>
+      </c>
+      <c r="AI71">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="AJ72">
+        <v>1888</v>
+      </c>
+      <c r="AK72" t="str">
+        <v>2019-03-27</v>
+      </c>
+      <c r="AL72" t="str">
+        <v>2024-05-27</v>
+      </c>
+      <c r="AM72">
+        <v>5157</v>
+      </c>
+      <c r="AN72">
+        <v>20509</v>
+      </c>
+      <c r="AO72">
+        <v>25666</v>
+      </c>
+      <c r="AP72">
+        <v>26.59</v>
+      </c>
+      <c r="AQ72">
+        <v>72.63</v>
+      </c>
+      <c r="AR72">
+        <v>288.86</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AR25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AR72"/>
   </ignoredErrors>
 </worksheet>
 </file>